--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_22_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_22_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>488773.2960978427</v>
+        <v>355723.9044761723</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23507905.66364772</v>
+        <v>23507905.66364771</v>
       </c>
     </row>
     <row r="9">
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>23.35464865984554</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="G11" t="n">
-        <v>23.35464865984557</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>24.83744407087693</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.83744407087693</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1493,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="R12" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="S12" t="n">
-        <v>24.83744407087693</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>21.87682073762835</v>
       </c>
       <c r="W12" t="n">
-        <v>21.87682073762838</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>23.35464865984557</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>24.83744407087693</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>24.83744407087693</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>23.35464865984554</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1691,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>24.83744407087693</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>24.83744407087693</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.83744407087693</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21.87682073762838</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>21.87682073762836</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>23.35464865984554</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>24.83744407087693</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1885,13 +1885,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>21.31820101697815</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>24.83744407087693</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.036447642867422</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>11.48159118566198</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1967,13 +1967,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="R18" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>24.83744407087693</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.3952295519664</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>21.87682073762835</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>23.35464865984557</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>24.83744407087693</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="V20" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>23.35464865984551</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24.83744407087693</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>24.83744407087693</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>21.87682073762838</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="S21" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>21.87682073762835</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2362,28 +2362,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>37.41536405021</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.41536405021</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>22.85404744466806</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>37.41536405020997</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>37.41536405020997</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>22.85404744466812</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2405,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>37.41536405020997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>37.41536405021</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>37.41536405021</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2441,16 +2441,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>37.41536405021</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>32.95545265542496</v>
       </c>
       <c r="T24" t="n">
-        <v>32.95545265542493</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>37.41536405020997</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>37.41536405020997</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>22.85404744466803</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>37.41536405021</v>
       </c>
       <c r="U26" t="n">
-        <v>37.41536405020997</v>
+        <v>37.41536405021</v>
       </c>
       <c r="V26" t="n">
-        <v>37.41536405020997</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>22.85404744466806</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>37.41536405021</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2651,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>21.47386146976292</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>37.41536405020997</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>37.41536405020997</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>11.48159118566201</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>37.41536405021</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>37.41536405021</v>
       </c>
       <c r="X27" t="n">
-        <v>37.41536405020997</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>32.95545265542496</v>
       </c>
     </row>
     <row r="28">
@@ -2794,73 +2794,73 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>22.85404744466806</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>37.41536405020997</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>37.41536405020997</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2915,31 +2915,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>37.41536405020997</v>
       </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="W30" t="n">
+        <v>37.41536405020997</v>
+      </c>
+      <c r="X30" t="n">
         <v>32.95545265542493</v>
       </c>
-      <c r="X30" t="n">
-        <v>37.41536405020997</v>
-      </c>
       <c r="Y30" t="n">
-        <v>37.41536405020997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>37.41536405020997</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.41536405021</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>37.41536405021</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>22.85404744466806</v>
       </c>
       <c r="W32" t="n">
-        <v>37.41536405020997</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>22.85404744466806</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>32.95545265542496</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>37.41536405021</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>37.41536405021</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.41536405020997</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>37.41536405021</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>37.41536405020997</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>37.41536405020997</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>32.95545265542493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,22 +3310,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>23.35464865984552</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="S35" t="n">
-        <v>24.83744407087687</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>24.83744407087687</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>23.3546486598455</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3398,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>21.87682073762834</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>24.83744407087687</v>
+        <v>21.87682073762836</v>
       </c>
       <c r="V36" t="n">
-        <v>24.83744407087687</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>24.83744407087687</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>23.35464865984551</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>24.83744407087687</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>24.83744407087687</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="V38" t="n">
-        <v>23.3546486598455</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>21.87682073762836</v>
       </c>
       <c r="C39" t="n">
-        <v>24.83744407087687</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>24.83744407087687</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>24.83744407087687</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>21.87682073762833</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>24.83744407087687</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>23.3546486598455</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>23.35464865984554</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.87682073762833</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3863,25 +3863,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>24.83744407087687</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>24.83744407087687</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>24.83744407087687</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>21.87682073762835</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3988,64 +3988,64 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>24.83744407087687</v>
+      </c>
+      <c r="W44" t="n">
+        <v>24.83744407087687</v>
+      </c>
+      <c r="X44" t="n">
         <v>23.3546486598455</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>24.83744407087687</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
       <c r="Y44" t="n">
-        <v>24.83744407087687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4100,28 +4100,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.87682073762834</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
         <v>24.83744407087687</v>
       </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
+      <c r="V45" t="n">
         <v>24.83744407087687</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>24.83744407087687</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>21.87682073762833</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="C11" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="D11" t="n">
-        <v>75.75420441617463</v>
+        <v>52.16365021431036</v>
       </c>
       <c r="E11" t="n">
-        <v>75.75420441617463</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="F11" t="n">
-        <v>75.75420441617463</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G11" t="n">
-        <v>52.16365021431042</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H11" t="n">
-        <v>27.07532286999028</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I11" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J11" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K11" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L11" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="M11" t="n">
-        <v>26.57606515583831</v>
+        <v>26.57606515583828</v>
       </c>
       <c r="N11" t="n">
-        <v>51.16513478600647</v>
+        <v>51.16513478600641</v>
       </c>
       <c r="O11" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="P11" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="Q11" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="R11" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="S11" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="T11" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="U11" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="V11" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="W11" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="X11" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="Y11" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617455</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="C12" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="D12" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="E12" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="F12" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G12" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H12" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I12" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J12" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K12" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L12" t="n">
-        <v>3.961691427671063</v>
+        <v>25.58256739300321</v>
       </c>
       <c r="M12" t="n">
-        <v>28.55076105783922</v>
+        <v>50.17163702317134</v>
       </c>
       <c r="N12" t="n">
-        <v>53.13983068800738</v>
+        <v>74.76070665333947</v>
       </c>
       <c r="O12" t="n">
-        <v>77.72890031817553</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="P12" t="n">
-        <v>99.34977628350771</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.26144893918757</v>
+        <v>74.26144893918749</v>
       </c>
       <c r="R12" t="n">
-        <v>49.17312159486744</v>
+        <v>49.17312159486738</v>
       </c>
       <c r="S12" t="n">
-        <v>24.08479425054731</v>
+        <v>49.17312159486738</v>
       </c>
       <c r="T12" t="n">
-        <v>24.08479425054731</v>
+        <v>49.17312159486738</v>
       </c>
       <c r="U12" t="n">
-        <v>24.08479425054731</v>
+        <v>49.17312159486738</v>
       </c>
       <c r="V12" t="n">
-        <v>24.08479425054731</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="W12" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="X12" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="C13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="D13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="E13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="F13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="M13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="N13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="O13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="P13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="R13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="S13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="T13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="U13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="V13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="W13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="X13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.57754972753436</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="C14" t="n">
-        <v>25.57754972753436</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="D14" t="n">
-        <v>25.57754972753436</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="E14" t="n">
-        <v>25.57754972753436</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="F14" t="n">
-        <v>25.57754972753436</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G14" t="n">
-        <v>25.57754972753436</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H14" t="n">
-        <v>25.57754972753436</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I14" t="n">
-        <v>25.57754972753436</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J14" t="n">
-        <v>25.57754972753436</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K14" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L14" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="M14" t="n">
-        <v>26.57606515583831</v>
+        <v>26.57606515583828</v>
       </c>
       <c r="N14" t="n">
-        <v>51.16513478600647</v>
+        <v>51.16513478600641</v>
       </c>
       <c r="O14" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="P14" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.6658770718545</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="R14" t="n">
-        <v>25.57754972753436</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="S14" t="n">
-        <v>25.57754972753436</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="T14" t="n">
-        <v>25.57754972753436</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="U14" t="n">
-        <v>25.57754972753436</v>
+        <v>50.66587707185444</v>
       </c>
       <c r="V14" t="n">
-        <v>25.57754972753436</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="W14" t="n">
-        <v>25.57754972753436</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="X14" t="n">
-        <v>25.57754972753436</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="Y14" t="n">
-        <v>25.57754972753436</v>
+        <v>27.07532286999026</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.34977628350771</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="C15" t="n">
-        <v>99.34977628350771</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="D15" t="n">
-        <v>74.26144893918757</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="E15" t="n">
-        <v>49.17312159486744</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="F15" t="n">
-        <v>24.08479425054731</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G15" t="n">
-        <v>24.08479425054731</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H15" t="n">
-        <v>24.08479425054731</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I15" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J15" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K15" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L15" t="n">
-        <v>3.961691427671063</v>
+        <v>26.57606515583828</v>
       </c>
       <c r="M15" t="n">
-        <v>28.55076105783922</v>
+        <v>51.16513478600641</v>
       </c>
       <c r="N15" t="n">
-        <v>53.13983068800738</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="O15" t="n">
-        <v>77.72890031817553</v>
+        <v>77.72890031817548</v>
       </c>
       <c r="P15" t="n">
-        <v>99.34977628350771</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.34977628350771</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="R15" t="n">
-        <v>99.34977628350771</v>
+        <v>77.25197755863046</v>
       </c>
       <c r="S15" t="n">
-        <v>99.34977628350771</v>
+        <v>52.16365021431036</v>
       </c>
       <c r="T15" t="n">
-        <v>99.34977628350771</v>
+        <v>52.16365021431036</v>
       </c>
       <c r="U15" t="n">
-        <v>99.34977628350771</v>
+        <v>52.16365021431036</v>
       </c>
       <c r="V15" t="n">
-        <v>99.34977628350771</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="W15" t="n">
-        <v>99.34977628350771</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="X15" t="n">
-        <v>99.34977628350771</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Y15" t="n">
-        <v>99.34977628350771</v>
+        <v>1.986995525670152</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="C16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="D16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="E16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="F16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="M16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="N16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="O16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="P16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="R16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="S16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="T16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="U16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="V16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="W16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="X16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.07532286999028</v>
+        <v>50.66587707185444</v>
       </c>
       <c r="C17" t="n">
-        <v>27.07532286999028</v>
+        <v>50.66587707185444</v>
       </c>
       <c r="D17" t="n">
-        <v>27.07532286999028</v>
+        <v>50.66587707185444</v>
       </c>
       <c r="E17" t="n">
-        <v>27.07532286999028</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="F17" t="n">
-        <v>27.07532286999028</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G17" t="n">
-        <v>27.07532286999028</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H17" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I17" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J17" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K17" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L17" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="M17" t="n">
-        <v>26.57606515583831</v>
+        <v>26.57606515583828</v>
       </c>
       <c r="N17" t="n">
-        <v>51.16513478600647</v>
+        <v>51.16513478600641</v>
       </c>
       <c r="O17" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="P17" t="n">
-        <v>54.22066803538862</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="Q17" t="n">
-        <v>29.13234069106849</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="R17" t="n">
-        <v>27.07532286999028</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="S17" t="n">
-        <v>27.07532286999028</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="T17" t="n">
-        <v>27.07532286999028</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="U17" t="n">
-        <v>27.07532286999028</v>
+        <v>50.66587707185444</v>
       </c>
       <c r="V17" t="n">
-        <v>27.07532286999028</v>
+        <v>50.66587707185444</v>
       </c>
       <c r="W17" t="n">
-        <v>27.07532286999028</v>
+        <v>50.66587707185444</v>
       </c>
       <c r="X17" t="n">
-        <v>27.07532286999028</v>
+        <v>50.66587707185444</v>
       </c>
       <c r="Y17" t="n">
-        <v>27.07532286999028</v>
+        <v>50.66587707185444</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13.58456237987418</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="C18" t="n">
-        <v>13.58456237987418</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="D18" t="n">
-        <v>13.58456237987418</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="E18" t="n">
-        <v>13.58456237987418</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="F18" t="n">
-        <v>13.58456237987418</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G18" t="n">
-        <v>13.58456237987418</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H18" t="n">
-        <v>13.58456237987418</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I18" t="n">
-        <v>13.58456237987418</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J18" t="n">
-        <v>13.58456237987418</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K18" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L18" t="n">
-        <v>26.57606515583831</v>
+        <v>26.57606515583828</v>
       </c>
       <c r="M18" t="n">
-        <v>28.55076105783922</v>
+        <v>28.55076105783919</v>
       </c>
       <c r="N18" t="n">
-        <v>53.13983068800738</v>
+        <v>53.13983068800732</v>
       </c>
       <c r="O18" t="n">
-        <v>77.72890031817553</v>
+        <v>77.72890031817545</v>
       </c>
       <c r="P18" t="n">
-        <v>99.34977628350771</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.26144893918757</v>
+        <v>74.26144893918749</v>
       </c>
       <c r="R18" t="n">
-        <v>49.17312159486744</v>
+        <v>49.17312159486738</v>
       </c>
       <c r="S18" t="n">
-        <v>49.17312159486744</v>
+        <v>24.08479425054728</v>
       </c>
       <c r="T18" t="n">
-        <v>49.17312159486744</v>
+        <v>24.08479425054728</v>
       </c>
       <c r="U18" t="n">
-        <v>49.17312159486744</v>
+        <v>24.08479425054728</v>
       </c>
       <c r="V18" t="n">
-        <v>24.08479425054731</v>
+        <v>24.08479425054728</v>
       </c>
       <c r="W18" t="n">
-        <v>13.58456237987418</v>
+        <v>24.08479425054728</v>
       </c>
       <c r="X18" t="n">
-        <v>13.58456237987418</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.58456237987418</v>
+        <v>1.986995525670152</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="C19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="D19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="E19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="F19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="M19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="N19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="O19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="P19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="R19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="S19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="T19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="U19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="V19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="W19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="X19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="C20" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="D20" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="E20" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="F20" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G20" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H20" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I20" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J20" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K20" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L20" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="M20" t="n">
-        <v>26.57606515583831</v>
+        <v>26.57606515583828</v>
       </c>
       <c r="N20" t="n">
-        <v>51.16513478600647</v>
+        <v>51.16513478600641</v>
       </c>
       <c r="O20" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617452</v>
       </c>
       <c r="P20" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617452</v>
       </c>
       <c r="Q20" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617452</v>
       </c>
       <c r="R20" t="n">
-        <v>75.75420441617463</v>
+        <v>75.75420441617452</v>
       </c>
       <c r="S20" t="n">
-        <v>52.16365021431042</v>
+        <v>75.75420441617452</v>
       </c>
       <c r="T20" t="n">
-        <v>27.07532286999028</v>
+        <v>75.75420441617452</v>
       </c>
       <c r="U20" t="n">
-        <v>27.07532286999028</v>
+        <v>50.66587707185441</v>
       </c>
       <c r="V20" t="n">
-        <v>1.986995525670154</v>
+        <v>25.57754972753431</v>
       </c>
       <c r="W20" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="X20" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>49.17312159486744</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="C21" t="n">
-        <v>49.17312159486744</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="D21" t="n">
-        <v>24.08479425054731</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="E21" t="n">
-        <v>24.08479425054731</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="F21" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G21" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H21" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I21" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J21" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K21" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L21" t="n">
-        <v>3.961691427671063</v>
+        <v>26.57606515583828</v>
       </c>
       <c r="M21" t="n">
-        <v>28.55076105783922</v>
+        <v>51.16513478600641</v>
       </c>
       <c r="N21" t="n">
-        <v>53.13983068800738</v>
+        <v>74.76070665333947</v>
       </c>
       <c r="O21" t="n">
-        <v>77.72890031817553</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="P21" t="n">
-        <v>99.34977628350771</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.34977628350771</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="R21" t="n">
-        <v>99.34977628350771</v>
+        <v>74.26144893918749</v>
       </c>
       <c r="S21" t="n">
-        <v>74.26144893918757</v>
+        <v>49.17312159486738</v>
       </c>
       <c r="T21" t="n">
-        <v>74.26144893918757</v>
+        <v>24.08479425054728</v>
       </c>
       <c r="U21" t="n">
-        <v>74.26144893918757</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="V21" t="n">
-        <v>74.26144893918757</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="W21" t="n">
-        <v>74.26144893918757</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="X21" t="n">
-        <v>74.26144893918757</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Y21" t="n">
-        <v>74.26144893918757</v>
+        <v>1.986995525670152</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="C22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="D22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="E22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="F22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="M22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="N22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="O22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="P22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="R22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="S22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="T22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="U22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="V22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="W22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="X22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.986995525670154</v>
+        <v>1.986995525670152</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="C23" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="D23" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="E23" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="F23" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="G23" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="H23" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="I23" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="J23" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="K23" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="L23" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="M23" t="n">
-        <v>40.03443953372467</v>
+        <v>40.0344395337247</v>
       </c>
       <c r="N23" t="n">
-        <v>77.07564994343255</v>
+        <v>77.07564994343261</v>
       </c>
       <c r="O23" t="n">
         <v>101.6647195736007</v>
@@ -6010,31 +6010,31 @@
         <v>101.6647195736007</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.6647195736007</v>
+        <v>63.87142255318656</v>
       </c>
       <c r="R23" t="n">
-        <v>101.6647195736007</v>
+        <v>26.07812553277242</v>
       </c>
       <c r="S23" t="n">
-        <v>101.6647195736007</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="T23" t="n">
-        <v>101.6647195736007</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="U23" t="n">
-        <v>63.87142255318659</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="V23" t="n">
-        <v>63.87142255318659</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="W23" t="n">
-        <v>26.07812553277248</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="X23" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.78652614443092</v>
+        <v>78.5798231648451</v>
       </c>
       <c r="C24" t="n">
-        <v>40.78652614443092</v>
+        <v>78.5798231648451</v>
       </c>
       <c r="D24" t="n">
-        <v>40.78652614443092</v>
+        <v>78.5798231648451</v>
       </c>
       <c r="E24" t="n">
-        <v>2.993229124016798</v>
+        <v>78.5798231648451</v>
       </c>
       <c r="F24" t="n">
-        <v>2.993229124016798</v>
+        <v>40.78652614443094</v>
       </c>
       <c r="G24" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="H24" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="I24" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="J24" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="K24" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="L24" t="n">
-        <v>40.03443953372467</v>
+        <v>38.5378249717163</v>
       </c>
       <c r="M24" t="n">
-        <v>77.07564994343255</v>
+        <v>75.57903538142421</v>
       </c>
       <c r="N24" t="n">
-        <v>90.99936982579985</v>
+        <v>112.6202457911321</v>
       </c>
       <c r="O24" t="n">
-        <v>128.0405802355077</v>
+        <v>149.66145620084</v>
       </c>
       <c r="P24" t="n">
-        <v>149.6614562008399</v>
+        <v>149.66145620084</v>
       </c>
       <c r="Q24" t="n">
-        <v>149.6614562008399</v>
+        <v>111.8681591804259</v>
       </c>
       <c r="R24" t="n">
-        <v>149.6614562008399</v>
+        <v>111.8681591804259</v>
       </c>
       <c r="S24" t="n">
-        <v>149.6614562008399</v>
+        <v>78.5798231648451</v>
       </c>
       <c r="T24" t="n">
-        <v>116.3731201852592</v>
+        <v>78.5798231648451</v>
       </c>
       <c r="U24" t="n">
-        <v>116.3731201852592</v>
+        <v>78.5798231648451</v>
       </c>
       <c r="V24" t="n">
-        <v>116.3731201852592</v>
+        <v>78.5798231648451</v>
       </c>
       <c r="W24" t="n">
-        <v>78.57982316484504</v>
+        <v>78.5798231648451</v>
       </c>
       <c r="X24" t="n">
-        <v>40.78652614443092</v>
+        <v>78.5798231648451</v>
       </c>
       <c r="Y24" t="n">
-        <v>40.78652614443092</v>
+        <v>78.5798231648451</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="C25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="D25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="E25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="F25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="G25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="H25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="I25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="J25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="K25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="L25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="M25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="N25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="O25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="P25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="R25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="S25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="T25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="U25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="V25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="W25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="X25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.993229124016798</v>
+        <v>26.07812553277239</v>
       </c>
       <c r="C26" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="D26" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="E26" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="F26" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="G26" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="H26" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="I26" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="J26" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="K26" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="L26" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="M26" t="n">
         <v>40.03443953372467</v>
       </c>
       <c r="N26" t="n">
-        <v>77.07564994343255</v>
+        <v>77.07564994343258</v>
       </c>
       <c r="O26" t="n">
-        <v>101.6647195736006</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="P26" t="n">
-        <v>101.6647195736006</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.6647195736006</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="R26" t="n">
-        <v>101.6647195736006</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="S26" t="n">
-        <v>101.6647195736006</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="T26" t="n">
-        <v>101.6647195736006</v>
+        <v>63.87142255318653</v>
       </c>
       <c r="U26" t="n">
-        <v>63.87142255318653</v>
+        <v>26.07812553277239</v>
       </c>
       <c r="V26" t="n">
-        <v>26.07812553277242</v>
+        <v>26.07812553277239</v>
       </c>
       <c r="W26" t="n">
-        <v>2.993229124016798</v>
+        <v>26.07812553277239</v>
       </c>
       <c r="X26" t="n">
-        <v>2.993229124016798</v>
+        <v>26.07812553277239</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.993229124016798</v>
+        <v>26.07812553277239</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>111.8681591804258</v>
+        <v>40.78652614443094</v>
       </c>
       <c r="C27" t="n">
-        <v>111.8681591804258</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="D27" t="n">
-        <v>111.8681591804258</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="E27" t="n">
-        <v>111.8681591804258</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="F27" t="n">
-        <v>111.8681591804258</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="G27" t="n">
-        <v>111.8681591804258</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="H27" t="n">
-        <v>90.17739001904908</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="I27" t="n">
-        <v>52.38409299863497</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="J27" t="n">
-        <v>14.59079597822085</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="K27" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="L27" t="n">
-        <v>16.91694900638413</v>
+        <v>40.0344395337247</v>
       </c>
       <c r="M27" t="n">
-        <v>53.958159416092</v>
+        <v>77.07564994343261</v>
       </c>
       <c r="N27" t="n">
-        <v>90.99936982579987</v>
+        <v>114.1168603531405</v>
       </c>
       <c r="O27" t="n">
-        <v>128.0405802355077</v>
+        <v>149.66145620084</v>
       </c>
       <c r="P27" t="n">
-        <v>149.6614562008399</v>
+        <v>149.66145620084</v>
       </c>
       <c r="Q27" t="n">
-        <v>149.6614562008399</v>
+        <v>149.66145620084</v>
       </c>
       <c r="R27" t="n">
-        <v>149.6614562008399</v>
+        <v>149.66145620084</v>
       </c>
       <c r="S27" t="n">
-        <v>149.6614562008399</v>
+        <v>149.66145620084</v>
       </c>
       <c r="T27" t="n">
-        <v>149.6614562008399</v>
+        <v>149.66145620084</v>
       </c>
       <c r="U27" t="n">
-        <v>149.6614562008399</v>
+        <v>149.66145620084</v>
       </c>
       <c r="V27" t="n">
-        <v>149.6614562008399</v>
+        <v>111.8681591804259</v>
       </c>
       <c r="W27" t="n">
-        <v>149.6614562008399</v>
+        <v>74.07486216001172</v>
       </c>
       <c r="X27" t="n">
-        <v>111.8681591804258</v>
+        <v>74.07486216001172</v>
       </c>
       <c r="Y27" t="n">
-        <v>111.8681591804258</v>
+        <v>40.78652614443094</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="C28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="D28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="E28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="F28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="G28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="H28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="I28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="J28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="K28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="L28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="M28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="N28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="O28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="P28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="Q28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="R28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="S28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="T28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="U28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="V28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="W28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="X28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.6614562008399</v>
+        <v>2.9932291240168</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>63.87142255318653</v>
       </c>
       <c r="C29" t="n">
-        <v>40.78652614443092</v>
+        <v>63.87142255318653</v>
       </c>
       <c r="D29" t="n">
-        <v>40.78652614443092</v>
+        <v>63.87142255318653</v>
       </c>
       <c r="E29" t="n">
-        <v>40.78652614443092</v>
+        <v>63.87142255318653</v>
       </c>
       <c r="F29" t="n">
         <v>40.78652614443092</v>
       </c>
       <c r="G29" t="n">
-        <v>40.78652614443092</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="H29" t="n">
         <v>2.993229124016798</v>
@@ -6505,7 +6505,7 @@
         <v>101.6647195736006</v>
       </c>
       <c r="X29" t="n">
-        <v>63.87142255318653</v>
+        <v>101.6647195736006</v>
       </c>
       <c r="Y29" t="n">
         <v>63.87142255318653</v>
@@ -6548,13 +6548,13 @@
         <v>2.993229124016798</v>
       </c>
       <c r="L30" t="n">
-        <v>16.91694900638413</v>
+        <v>40.03443953372467</v>
       </c>
       <c r="M30" t="n">
-        <v>53.958159416092</v>
+        <v>77.07564994343255</v>
       </c>
       <c r="N30" t="n">
-        <v>90.99936982579987</v>
+        <v>114.1168603531404</v>
       </c>
       <c r="O30" t="n">
         <v>128.0405802355077</v>
@@ -6563,28 +6563,28 @@
         <v>149.6614562008399</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.8681591804258</v>
+        <v>149.6614562008399</v>
       </c>
       <c r="R30" t="n">
-        <v>111.8681591804258</v>
+        <v>149.6614562008399</v>
       </c>
       <c r="S30" t="n">
-        <v>111.8681591804258</v>
+        <v>149.6614562008399</v>
       </c>
       <c r="T30" t="n">
-        <v>111.8681591804258</v>
+        <v>149.6614562008399</v>
       </c>
       <c r="U30" t="n">
         <v>111.8681591804258</v>
       </c>
       <c r="V30" t="n">
-        <v>111.8681591804258</v>
+        <v>74.07486216001166</v>
       </c>
       <c r="W30" t="n">
-        <v>78.57982316484504</v>
+        <v>36.28156513959755</v>
       </c>
       <c r="X30" t="n">
-        <v>40.78652614443092</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="Y30" t="n">
         <v>2.993229124016798</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="C31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="D31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="E31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="F31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="G31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="H31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="I31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="J31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="K31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="L31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="M31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="N31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="O31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="P31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="Q31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="R31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="S31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="T31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="U31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="V31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="W31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="X31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.6614562008399</v>
+        <v>2.993229124016798</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>40.78652614443092</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="C32" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="D32" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="E32" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="F32" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="G32" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="H32" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="I32" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="J32" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="K32" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="L32" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="M32" t="n">
-        <v>40.03443953372467</v>
+        <v>40.0344395337247</v>
       </c>
       <c r="N32" t="n">
-        <v>77.07564994343255</v>
+        <v>77.07564994343261</v>
       </c>
       <c r="O32" t="n">
-        <v>101.6647195736006</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="P32" t="n">
-        <v>101.6647195736006</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.6647195736006</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="R32" t="n">
-        <v>101.6647195736006</v>
+        <v>63.87142255318656</v>
       </c>
       <c r="S32" t="n">
-        <v>101.6647195736006</v>
+        <v>26.07812553277242</v>
       </c>
       <c r="T32" t="n">
-        <v>101.6647195736006</v>
+        <v>26.07812553277242</v>
       </c>
       <c r="U32" t="n">
-        <v>101.6647195736006</v>
+        <v>26.07812553277242</v>
       </c>
       <c r="V32" t="n">
-        <v>101.6647195736006</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="W32" t="n">
-        <v>63.87142255318653</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="X32" t="n">
-        <v>40.78652614443092</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="Y32" t="n">
-        <v>40.78652614443092</v>
+        <v>2.9932291240168</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.993229124016798</v>
+        <v>78.5798231648451</v>
       </c>
       <c r="C33" t="n">
-        <v>2.993229124016798</v>
+        <v>40.78652614443094</v>
       </c>
       <c r="D33" t="n">
-        <v>2.993229124016798</v>
+        <v>40.78652614443094</v>
       </c>
       <c r="E33" t="n">
-        <v>2.993229124016798</v>
+        <v>40.78652614443094</v>
       </c>
       <c r="F33" t="n">
-        <v>2.993229124016798</v>
+        <v>40.78652614443094</v>
       </c>
       <c r="G33" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="H33" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="I33" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="J33" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="K33" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="L33" t="n">
-        <v>40.03443953372467</v>
+        <v>40.0344395337247</v>
       </c>
       <c r="M33" t="n">
-        <v>77.07564994343255</v>
+        <v>77.07564994343261</v>
       </c>
       <c r="N33" t="n">
-        <v>114.1168603531404</v>
+        <v>114.1168603531405</v>
       </c>
       <c r="O33" t="n">
-        <v>149.6614562008399</v>
+        <v>149.66145620084</v>
       </c>
       <c r="P33" t="n">
-        <v>149.6614562008399</v>
+        <v>149.66145620084</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.8681591804258</v>
+        <v>149.66145620084</v>
       </c>
       <c r="R33" t="n">
-        <v>111.8681591804258</v>
+        <v>149.66145620084</v>
       </c>
       <c r="S33" t="n">
-        <v>111.8681591804258</v>
+        <v>149.66145620084</v>
       </c>
       <c r="T33" t="n">
-        <v>111.8681591804258</v>
+        <v>111.8681591804259</v>
       </c>
       <c r="U33" t="n">
-        <v>111.8681591804258</v>
+        <v>111.8681591804259</v>
       </c>
       <c r="V33" t="n">
-        <v>111.8681591804258</v>
+        <v>111.8681591804259</v>
       </c>
       <c r="W33" t="n">
-        <v>74.07486216001166</v>
+        <v>111.8681591804259</v>
       </c>
       <c r="X33" t="n">
-        <v>36.28156513959755</v>
+        <v>111.8681591804259</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.993229124016798</v>
+        <v>111.8681591804259</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="C34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="D34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="E34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="F34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="G34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="H34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="I34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="J34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="K34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="L34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="M34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="N34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="O34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="P34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="R34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="S34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="T34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="U34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="V34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="W34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="X34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.993229124016798</v>
+        <v>2.9932291240168</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.98699552567015</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="C35" t="n">
-        <v>1.98699552567015</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="D35" t="n">
-        <v>1.98699552567015</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="E35" t="n">
-        <v>1.98699552567015</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="F35" t="n">
-        <v>1.98699552567015</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="G35" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H35" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I35" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J35" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K35" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L35" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="M35" t="n">
-        <v>26.57606515583825</v>
+        <v>26.57606515583828</v>
       </c>
       <c r="N35" t="n">
-        <v>51.16513478600635</v>
+        <v>51.16513478600641</v>
       </c>
       <c r="O35" t="n">
-        <v>75.75420441617445</v>
+        <v>75.75420441617452</v>
       </c>
       <c r="P35" t="n">
-        <v>75.75420441617445</v>
+        <v>75.75420441617452</v>
       </c>
       <c r="Q35" t="n">
-        <v>75.75420441617445</v>
+        <v>52.16365021431036</v>
       </c>
       <c r="R35" t="n">
-        <v>75.75420441617445</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="S35" t="n">
-        <v>50.66587707185437</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="T35" t="n">
-        <v>50.66587707185437</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="U35" t="n">
-        <v>25.57754972753429</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="V35" t="n">
-        <v>1.98699552567015</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="W35" t="n">
-        <v>1.98699552567015</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="X35" t="n">
-        <v>1.98699552567015</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.98699552567015</v>
+        <v>27.07532286999026</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.98699552567015</v>
+        <v>77.25197755863046</v>
       </c>
       <c r="C36" t="n">
-        <v>1.98699552567015</v>
+        <v>52.16365021431036</v>
       </c>
       <c r="D36" t="n">
-        <v>1.98699552567015</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="E36" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="F36" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G36" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H36" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I36" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J36" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K36" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L36" t="n">
-        <v>3.961691427671035</v>
+        <v>26.57606515583828</v>
       </c>
       <c r="M36" t="n">
-        <v>28.55076105783914</v>
+        <v>28.55076105783919</v>
       </c>
       <c r="N36" t="n">
-        <v>53.13983068800724</v>
+        <v>53.13983068800732</v>
       </c>
       <c r="O36" t="n">
-        <v>77.72890031817533</v>
+        <v>77.72890031817545</v>
       </c>
       <c r="P36" t="n">
-        <v>99.34977628350748</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.34977628350748</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="R36" t="n">
-        <v>99.34977628350748</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="S36" t="n">
-        <v>99.34977628350748</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="T36" t="n">
-        <v>77.25197755863037</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="U36" t="n">
-        <v>52.16365021431029</v>
+        <v>77.25197755863046</v>
       </c>
       <c r="V36" t="n">
-        <v>27.07532286999022</v>
+        <v>77.25197755863046</v>
       </c>
       <c r="W36" t="n">
-        <v>1.98699552567015</v>
+        <v>77.25197755863046</v>
       </c>
       <c r="X36" t="n">
-        <v>1.98699552567015</v>
+        <v>77.25197755863046</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.98699552567015</v>
+        <v>77.25197755863046</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="C37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="D37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="E37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="F37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="M37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="N37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="O37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="P37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Q37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="R37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="S37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="T37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="U37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="V37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="W37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="X37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.34977628350748</v>
+        <v>1.986995525670152</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.98699552567015</v>
+        <v>50.66587707185441</v>
       </c>
       <c r="C38" t="n">
-        <v>1.98699552567015</v>
+        <v>50.66587707185441</v>
       </c>
       <c r="D38" t="n">
-        <v>1.98699552567015</v>
+        <v>50.66587707185441</v>
       </c>
       <c r="E38" t="n">
-        <v>1.98699552567015</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="F38" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G38" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H38" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I38" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J38" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K38" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L38" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="M38" t="n">
-        <v>26.57606515583825</v>
+        <v>26.57606515583828</v>
       </c>
       <c r="N38" t="n">
-        <v>51.16513478600635</v>
+        <v>51.16513478600641</v>
       </c>
       <c r="O38" t="n">
-        <v>75.75420441617445</v>
+        <v>75.75420441617452</v>
       </c>
       <c r="P38" t="n">
-        <v>75.75420441617445</v>
+        <v>75.75420441617452</v>
       </c>
       <c r="Q38" t="n">
-        <v>75.75420441617445</v>
+        <v>75.75420441617452</v>
       </c>
       <c r="R38" t="n">
-        <v>50.66587707185437</v>
+        <v>75.75420441617452</v>
       </c>
       <c r="S38" t="n">
-        <v>25.57754972753429</v>
+        <v>75.75420441617452</v>
       </c>
       <c r="T38" t="n">
-        <v>25.57754972753429</v>
+        <v>75.75420441617452</v>
       </c>
       <c r="U38" t="n">
-        <v>25.57754972753429</v>
+        <v>50.66587707185441</v>
       </c>
       <c r="V38" t="n">
-        <v>1.98699552567015</v>
+        <v>50.66587707185441</v>
       </c>
       <c r="W38" t="n">
-        <v>1.98699552567015</v>
+        <v>50.66587707185441</v>
       </c>
       <c r="X38" t="n">
-        <v>1.98699552567015</v>
+        <v>50.66587707185441</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.98699552567015</v>
+        <v>50.66587707185441</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>27.07532286999022</v>
+        <v>77.25197755863046</v>
       </c>
       <c r="C39" t="n">
-        <v>1.98699552567015</v>
+        <v>77.25197755863046</v>
       </c>
       <c r="D39" t="n">
-        <v>1.98699552567015</v>
+        <v>52.16365021431036</v>
       </c>
       <c r="E39" t="n">
-        <v>1.98699552567015</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="F39" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G39" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H39" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I39" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J39" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K39" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L39" t="n">
-        <v>3.961691427671035</v>
+        <v>3.961691427671063</v>
       </c>
       <c r="M39" t="n">
-        <v>28.55076105783914</v>
+        <v>28.55076105783919</v>
       </c>
       <c r="N39" t="n">
-        <v>53.13983068800724</v>
+        <v>53.13983068800732</v>
       </c>
       <c r="O39" t="n">
-        <v>77.72890031817533</v>
+        <v>77.72890031817545</v>
       </c>
       <c r="P39" t="n">
-        <v>99.34977628350748</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.34977628350748</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="R39" t="n">
-        <v>74.2614489391874</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="S39" t="n">
-        <v>74.2614489391874</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="T39" t="n">
-        <v>49.17312159486733</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="U39" t="n">
-        <v>49.17312159486733</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="V39" t="n">
-        <v>49.17312159486733</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="W39" t="n">
-        <v>49.17312159486733</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="X39" t="n">
-        <v>27.07532286999022</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="Y39" t="n">
-        <v>27.07532286999022</v>
+        <v>99.34977628350759</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="C40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="D40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="E40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="F40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="M40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="N40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="O40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="P40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="R40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="S40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="T40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="U40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="V40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="W40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="X40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50.66587707185437</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="C41" t="n">
-        <v>25.57754972753429</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="D41" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="E41" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="F41" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G41" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H41" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I41" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J41" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K41" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L41" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="M41" t="n">
-        <v>26.57606515583825</v>
+        <v>26.57606515583828</v>
       </c>
       <c r="N41" t="n">
-        <v>51.16513478600635</v>
+        <v>51.16513478600641</v>
       </c>
       <c r="O41" t="n">
-        <v>75.75420441617445</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="P41" t="n">
-        <v>75.75420441617445</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="Q41" t="n">
-        <v>50.66587707185437</v>
+        <v>50.66587707185444</v>
       </c>
       <c r="R41" t="n">
-        <v>50.66587707185437</v>
+        <v>50.66587707185444</v>
       </c>
       <c r="S41" t="n">
-        <v>50.66587707185437</v>
+        <v>50.66587707185444</v>
       </c>
       <c r="T41" t="n">
-        <v>50.66587707185437</v>
+        <v>25.57754972753434</v>
       </c>
       <c r="U41" t="n">
-        <v>50.66587707185437</v>
+        <v>25.57754972753434</v>
       </c>
       <c r="V41" t="n">
-        <v>50.66587707185437</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="W41" t="n">
-        <v>50.66587707185437</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="X41" t="n">
-        <v>50.66587707185437</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.66587707185437</v>
+        <v>1.986995525670152</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>24.08479425054725</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="C42" t="n">
-        <v>24.08479425054725</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="D42" t="n">
-        <v>24.08479425054725</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="E42" t="n">
-        <v>24.08479425054725</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="F42" t="n">
-        <v>24.08479425054725</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G42" t="n">
-        <v>24.08479425054725</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H42" t="n">
-        <v>24.08479425054725</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I42" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J42" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K42" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L42" t="n">
-        <v>3.961691427671035</v>
+        <v>26.57606515583828</v>
       </c>
       <c r="M42" t="n">
-        <v>28.55076105783914</v>
+        <v>51.16513478600641</v>
       </c>
       <c r="N42" t="n">
-        <v>53.13983068800724</v>
+        <v>75.75420441617455</v>
       </c>
       <c r="O42" t="n">
-        <v>77.72890031817533</v>
+        <v>77.72890031817545</v>
       </c>
       <c r="P42" t="n">
-        <v>99.34977628350748</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="Q42" t="n">
-        <v>74.2614489391874</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="R42" t="n">
-        <v>49.17312159486733</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="S42" t="n">
-        <v>24.08479425054725</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="T42" t="n">
-        <v>24.08479425054725</v>
+        <v>99.34977628350759</v>
       </c>
       <c r="U42" t="n">
-        <v>24.08479425054725</v>
+        <v>74.26144893918749</v>
       </c>
       <c r="V42" t="n">
-        <v>24.08479425054725</v>
+        <v>49.17312159486738</v>
       </c>
       <c r="W42" t="n">
-        <v>24.08479425054725</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="X42" t="n">
-        <v>24.08479425054725</v>
+        <v>27.07532286999026</v>
       </c>
       <c r="Y42" t="n">
-        <v>24.08479425054725</v>
+        <v>27.07532286999026</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="C43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="D43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="E43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="F43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="G43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="H43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="I43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="J43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="K43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="L43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="M43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="N43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="O43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="P43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="R43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="S43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="T43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="U43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="V43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="W43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="X43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.98699552567015</v>
+        <v>1.986995525670152</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25.57754972753429</v>
+        <v>1.98699552567015</v>
       </c>
       <c r="C44" t="n">
-        <v>25.57754972753429</v>
+        <v>1.98699552567015</v>
       </c>
       <c r="D44" t="n">
-        <v>25.57754972753429</v>
+        <v>1.98699552567015</v>
       </c>
       <c r="E44" t="n">
-        <v>25.57754972753429</v>
+        <v>1.98699552567015</v>
       </c>
       <c r="F44" t="n">
         <v>1.98699552567015</v>
@@ -7681,19 +7681,19 @@
         <v>75.75420441617445</v>
       </c>
       <c r="U44" t="n">
-        <v>50.66587707185437</v>
+        <v>75.75420441617445</v>
       </c>
       <c r="V44" t="n">
         <v>50.66587707185437</v>
       </c>
       <c r="W44" t="n">
-        <v>50.66587707185437</v>
+        <v>25.57754972753429</v>
       </c>
       <c r="X44" t="n">
-        <v>50.66587707185437</v>
+        <v>1.98699552567015</v>
       </c>
       <c r="Y44" t="n">
-        <v>25.57754972753429</v>
+        <v>1.98699552567015</v>
       </c>
     </row>
     <row r="45">
@@ -7733,13 +7733,13 @@
         <v>1.98699552567015</v>
       </c>
       <c r="L45" t="n">
-        <v>26.57606515583825</v>
+        <v>3.961691427671035</v>
       </c>
       <c r="M45" t="n">
-        <v>51.16513478600635</v>
+        <v>28.55076105783914</v>
       </c>
       <c r="N45" t="n">
-        <v>75.75420441617445</v>
+        <v>53.13983068800724</v>
       </c>
       <c r="O45" t="n">
         <v>77.72890031817533</v>
@@ -7748,25 +7748,25 @@
         <v>99.34977628350748</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.25197755863037</v>
+        <v>99.34977628350748</v>
       </c>
       <c r="R45" t="n">
-        <v>52.16365021431029</v>
+        <v>99.34977628350748</v>
       </c>
       <c r="S45" t="n">
-        <v>52.16365021431029</v>
+        <v>99.34977628350748</v>
       </c>
       <c r="T45" t="n">
-        <v>27.07532286999022</v>
+        <v>99.34977628350748</v>
       </c>
       <c r="U45" t="n">
-        <v>27.07532286999022</v>
+        <v>74.2614489391874</v>
       </c>
       <c r="V45" t="n">
-        <v>27.07532286999022</v>
+        <v>49.17312159486733</v>
       </c>
       <c r="W45" t="n">
-        <v>1.98699552567015</v>
+        <v>24.08479425054725</v>
       </c>
       <c r="X45" t="n">
         <v>1.98699552567015</v>
@@ -22576,19 +22576,19 @@
         <v>94.6755543817487</v>
       </c>
       <c r="L2" t="n">
-        <v>71.97849854454964</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M2" t="n">
-        <v>41.06296488573625</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N2" t="n">
         <v>36.04170333287215</v>
       </c>
       <c r="O2" t="n">
-        <v>50.46651067918273</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P2" t="n">
-        <v>85.58838417758693</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q2" t="n">
         <v>123.6377068975464</v>
@@ -22646,13 +22646,13 @@
         <v>120.7755129590769</v>
       </c>
       <c r="I3" t="n">
-        <v>96.24274587248614</v>
+        <v>96.24274587248613</v>
       </c>
       <c r="J3" t="n">
         <v>85.66099395901793</v>
       </c>
       <c r="K3" t="n">
-        <v>50.09627633166346</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L3" t="n">
         <v>10.27628214666007</v>
@@ -22667,7 +22667,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.82458668363597</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q3" t="n">
         <v>77.442690741435</v>
@@ -22810,7 +22810,7 @@
         <v>97.38162427947184</v>
       </c>
       <c r="K5" t="n">
-        <v>83.42355640483248</v>
+        <v>83.42355640483251</v>
       </c>
       <c r="L5" t="n">
         <v>58.01940008446331</v>
@@ -22819,7 +22819,7 @@
         <v>25.53077821856496</v>
       </c>
       <c r="N5" t="n">
-        <v>20.25818964702478</v>
+        <v>20.25818964702484</v>
       </c>
       <c r="O5" t="n">
         <v>35.5625862733917</v>
@@ -22907,7 +22907,7 @@
         <v>14.78693852483815</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.40126228781628</v>
+        <v>71.40126228781629</v>
       </c>
       <c r="R6" t="n">
         <v>129.3928979528938</v>
@@ -22974,7 +22974,7 @@
         <v>67.52371566667536</v>
       </c>
       <c r="M7" t="n">
-        <v>67.17903279110968</v>
+        <v>67.17903279110969</v>
       </c>
       <c r="N7" t="n">
         <v>55.89865382137701</v>
@@ -23047,7 +23047,7 @@
         <v>87.74555168308848</v>
       </c>
       <c r="K8" t="n">
-        <v>68.98158147698734</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L8" t="n">
         <v>40.1028531396922</v>
@@ -23059,10 +23059,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>16.43335224433224</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P8" t="n">
-        <v>56.54187083839042</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q8" t="n">
         <v>101.8249850515391</v>
@@ -23208,7 +23208,7 @@
         <v>75.64987151995348</v>
       </c>
       <c r="L10" t="n">
-        <v>59.95218091677093</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M10" t="n">
         <v>59.1959110048432</v>
@@ -23263,28 +23263,28 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>314.4175109823817</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>346.6414679907592</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>378.3618055691365</v>
       </c>
       <c r="G11" t="n">
-        <v>394.0767261405531</v>
+        <v>417.4313748003987</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7765828585324</v>
+        <v>332.6140269294093</v>
       </c>
       <c r="I11" t="n">
-        <v>161.9367389944617</v>
+        <v>186.7741830653387</v>
       </c>
       <c r="J11" t="n">
-        <v>66.95599007284457</v>
+        <v>66.9559900728446</v>
       </c>
       <c r="K11" t="n">
-        <v>37.82341776112625</v>
+        <v>37.82341776112628</v>
       </c>
       <c r="L11" t="n">
         <v>1.448395856862533</v>
@@ -23299,10 +23299,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>21.31820101697815</v>
+        <v>21.31820101697821</v>
       </c>
       <c r="Q11" t="n">
-        <v>75.37347594138163</v>
+        <v>75.37347594138166</v>
       </c>
       <c r="R11" t="n">
         <v>149.0960004006322</v>
@@ -23357,13 +23357,13 @@
         <v>118.4659946199538</v>
       </c>
       <c r="I12" t="n">
-        <v>88.00944934109815</v>
+        <v>88.00944934109816</v>
       </c>
       <c r="J12" t="n">
-        <v>63.06819898033912</v>
+        <v>63.06819898033913</v>
       </c>
       <c r="K12" t="n">
-        <v>11.48159118566198</v>
+        <v>11.48159118566201</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,13 +23381,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.08016867698917</v>
+        <v>22.08016867698922</v>
       </c>
       <c r="R12" t="n">
-        <v>92.64676288120819</v>
+        <v>92.64676288120823</v>
       </c>
       <c r="S12" t="n">
-        <v>152.7722121877065</v>
+        <v>177.6096562585834</v>
       </c>
       <c r="T12" t="n">
         <v>211.937000790509</v>
@@ -23396,10 +23396,10 @@
         <v>237.1785495379934</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>218.7721001777739</v>
       </c>
       <c r="W12" t="n">
-        <v>244.8277628393832</v>
+        <v>241.8671395061347</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
@@ -23445,19 +23445,19 @@
         <v>62.88442388222433</v>
       </c>
       <c r="L13" t="n">
-        <v>43.61680293027463</v>
+        <v>43.61680293027464</v>
       </c>
       <c r="M13" t="n">
-        <v>41.97254530708391</v>
+        <v>41.97254530708392</v>
       </c>
       <c r="N13" t="n">
-        <v>31.29152027045163</v>
+        <v>31.29152027045164</v>
       </c>
       <c r="O13" t="n">
-        <v>53.9350750425105</v>
+        <v>53.93507504251052</v>
       </c>
       <c r="P13" t="n">
-        <v>69.64128415389854</v>
+        <v>69.64128415389855</v>
       </c>
       <c r="Q13" t="n">
         <v>116.718125520665</v>
@@ -23506,7 +23506,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>378.3618055691365</v>
       </c>
       <c r="G14" t="n">
         <v>417.4313748003987</v>
@@ -23518,13 +23518,13 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J14" t="n">
-        <v>66.95599007284457</v>
+        <v>66.9559900728446</v>
       </c>
       <c r="K14" t="n">
-        <v>14.46876910128068</v>
+        <v>37.82341776112631</v>
       </c>
       <c r="L14" t="n">
-        <v>1.448395856862533</v>
+        <v>1.448395856862589</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23536,13 +23536,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>21.31820101697815</v>
+        <v>21.31820101697826</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.5360318705047</v>
+        <v>75.37347594138168</v>
       </c>
       <c r="R14" t="n">
-        <v>124.2585563297553</v>
+        <v>149.0960004006323</v>
       </c>
       <c r="S14" t="n">
         <v>195.4595814361797</v>
@@ -23551,10 +23551,10 @@
         <v>216.3076224445705</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0379976396698</v>
+        <v>225.2005535687929</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>297.5251349493064</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
@@ -23579,13 +23579,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>134.3348710057016</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>146.9901277689227</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>133.9859950490514</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>147.9919010994193</v>
@@ -23594,13 +23594,13 @@
         <v>118.4659946199538</v>
       </c>
       <c r="I15" t="n">
-        <v>66.13262860346977</v>
+        <v>88.00944934109816</v>
       </c>
       <c r="J15" t="n">
-        <v>63.06819898033912</v>
+        <v>63.06819898033915</v>
       </c>
       <c r="K15" t="n">
-        <v>11.48159118566198</v>
+        <v>11.48159118566204</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,13 +23618,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.9176127478661</v>
+        <v>46.91761274786613</v>
       </c>
       <c r="R15" t="n">
-        <v>117.4842069520851</v>
+        <v>95.60738621445678</v>
       </c>
       <c r="S15" t="n">
-        <v>177.6096562585834</v>
+        <v>152.7722121877065</v>
       </c>
       <c r="T15" t="n">
         <v>211.937000790509</v>
@@ -23633,10 +23633,10 @@
         <v>237.1785495379934</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>215.8114768445253</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>241.8671395061347</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
@@ -23679,22 +23679,22 @@
         <v>97.42127736463203</v>
       </c>
       <c r="K16" t="n">
-        <v>62.88442388222433</v>
+        <v>62.88442388222434</v>
       </c>
       <c r="L16" t="n">
-        <v>43.61680293027463</v>
+        <v>43.61680293027466</v>
       </c>
       <c r="M16" t="n">
-        <v>41.97254530708391</v>
+        <v>41.97254530708393</v>
       </c>
       <c r="N16" t="n">
-        <v>31.29152027045163</v>
+        <v>31.29152027045166</v>
       </c>
       <c r="O16" t="n">
-        <v>53.9350750425105</v>
+        <v>53.93507504251053</v>
       </c>
       <c r="P16" t="n">
-        <v>69.64128415389854</v>
+        <v>69.64128415389857</v>
       </c>
       <c r="Q16" t="n">
         <v>116.718125520665</v>
@@ -23740,25 +23740,25 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>348.1242634017906</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>378.3618055691365</v>
       </c>
       <c r="G17" t="n">
         <v>417.4313748003987</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7765828585324</v>
+        <v>332.6140269294093</v>
       </c>
       <c r="I17" t="n">
         <v>186.7741830653387</v>
       </c>
       <c r="J17" t="n">
-        <v>66.95599007284457</v>
+        <v>66.9559900728446</v>
       </c>
       <c r="K17" t="n">
-        <v>37.82341776112625</v>
+        <v>37.82341776112628</v>
       </c>
       <c r="L17" t="n">
         <v>1.448395856862533</v>
@@ -23773,13 +23773,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>21.31820101697821</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.5360318705047</v>
+        <v>75.37347594138166</v>
       </c>
       <c r="R17" t="n">
-        <v>147.0595527577648</v>
+        <v>149.0960004006322</v>
       </c>
       <c r="S17" t="n">
         <v>195.4595814361797</v>
@@ -23788,7 +23788,7 @@
         <v>216.3076224445705</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0379976396698</v>
+        <v>225.2005535687929</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23831,13 +23831,13 @@
         <v>118.4659946199538</v>
       </c>
       <c r="I18" t="n">
-        <v>88.00944934109815</v>
+        <v>88.00944934109816</v>
       </c>
       <c r="J18" t="n">
-        <v>63.06819898033912</v>
+        <v>63.06819898033913</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>11.48159118566201</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,13 +23855,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.08016867698917</v>
+        <v>22.08016867698922</v>
       </c>
       <c r="R18" t="n">
-        <v>92.64676288120819</v>
+        <v>92.64676288120823</v>
       </c>
       <c r="S18" t="n">
-        <v>177.6096562585834</v>
+        <v>152.7722121877065</v>
       </c>
       <c r="T18" t="n">
         <v>211.937000790509</v>
@@ -23870,13 +23870,13 @@
         <v>237.1785495379934</v>
       </c>
       <c r="V18" t="n">
-        <v>215.8114768445253</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>256.3093540250452</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>195.4360937018423</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -23919,19 +23919,19 @@
         <v>62.88442388222433</v>
       </c>
       <c r="L19" t="n">
-        <v>43.61680293027463</v>
+        <v>43.61680293027464</v>
       </c>
       <c r="M19" t="n">
-        <v>41.97254530708391</v>
+        <v>41.97254530708392</v>
       </c>
       <c r="N19" t="n">
-        <v>31.29152027045163</v>
+        <v>31.29152027045164</v>
       </c>
       <c r="O19" t="n">
-        <v>53.9350750425105</v>
+        <v>53.93507504251052</v>
       </c>
       <c r="P19" t="n">
-        <v>69.64128415389854</v>
+        <v>69.64128415389855</v>
       </c>
       <c r="Q19" t="n">
         <v>116.718125520665</v>
@@ -23992,10 +23992,10 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J20" t="n">
-        <v>66.95599007284457</v>
+        <v>66.9559900728446</v>
       </c>
       <c r="K20" t="n">
-        <v>37.82341776112625</v>
+        <v>37.82341776112628</v>
       </c>
       <c r="L20" t="n">
         <v>1.448395856862533</v>
@@ -24010,28 +24010,28 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>21.31820101697815</v>
+        <v>21.31820101697821</v>
       </c>
       <c r="Q20" t="n">
-        <v>75.37347594138163</v>
+        <v>75.37347594138166</v>
       </c>
       <c r="R20" t="n">
         <v>149.0960004006322</v>
       </c>
       <c r="S20" t="n">
-        <v>172.1049327763341</v>
+        <v>195.4595814361797</v>
       </c>
       <c r="T20" t="n">
-        <v>191.4701783736936</v>
+        <v>216.3076224445705</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0379976396698</v>
+        <v>225.2005535687929</v>
       </c>
       <c r="V20" t="n">
         <v>296.0423395382751</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>314.5418151659214</v>
       </c>
       <c r="X20" t="n">
         <v>359.7827142947061</v>
@@ -24047,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>151.9130503267888</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>134.3348710057016</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>136.9466183823</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>147.9919010994193</v>
@@ -24068,13 +24068,13 @@
         <v>118.4659946199538</v>
       </c>
       <c r="I21" t="n">
-        <v>88.00944934109815</v>
+        <v>88.00944934109816</v>
       </c>
       <c r="J21" t="n">
-        <v>63.06819898033912</v>
+        <v>63.06819898033913</v>
       </c>
       <c r="K21" t="n">
-        <v>11.48159118566198</v>
+        <v>11.48159118566201</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.9176127478661</v>
+        <v>46.91761274786612</v>
       </c>
       <c r="R21" t="n">
-        <v>117.4842069520851</v>
+        <v>92.64676288120823</v>
       </c>
       <c r="S21" t="n">
         <v>152.7722121877065</v>
       </c>
       <c r="T21" t="n">
-        <v>211.937000790509</v>
+        <v>187.0995567196321</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1785495379934</v>
+        <v>215.301728800365</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24156,19 +24156,19 @@
         <v>62.88442388222433</v>
       </c>
       <c r="L22" t="n">
-        <v>43.61680293027463</v>
+        <v>43.61680293027464</v>
       </c>
       <c r="M22" t="n">
-        <v>41.97254530708391</v>
+        <v>41.97254530708392</v>
       </c>
       <c r="N22" t="n">
-        <v>31.29152027045163</v>
+        <v>31.29152027045164</v>
       </c>
       <c r="O22" t="n">
-        <v>53.9350750425105</v>
+        <v>53.93507504251052</v>
       </c>
       <c r="P22" t="n">
-        <v>69.64128415389854</v>
+        <v>69.64128415389855</v>
       </c>
       <c r="Q22" t="n">
         <v>116.718125520665</v>
@@ -24229,10 +24229,10 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J23" t="n">
-        <v>66.95599007284457</v>
+        <v>66.9559900728446</v>
       </c>
       <c r="K23" t="n">
-        <v>37.82341776112625</v>
+        <v>37.82341776112628</v>
       </c>
       <c r="L23" t="n">
         <v>1.448395856862533</v>
@@ -24247,31 +24247,31 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>21.31820101697815</v>
+        <v>21.31820101697821</v>
       </c>
       <c r="Q23" t="n">
-        <v>75.37347594138163</v>
+        <v>37.95811189117165</v>
       </c>
       <c r="R23" t="n">
-        <v>149.0960004006322</v>
+        <v>111.6806363504222</v>
       </c>
       <c r="S23" t="n">
-        <v>195.4595814361797</v>
+        <v>172.6055339915116</v>
       </c>
       <c r="T23" t="n">
         <v>216.3076224445705</v>
       </c>
       <c r="U23" t="n">
-        <v>212.6226335894598</v>
+        <v>250.0379976396698</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>300.4810997755569</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>336.928666850038</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -24293,25 +24293,25 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>134.4122077895897</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>121.4080750697183</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9919010994193</v>
+        <v>110.5765370492093</v>
       </c>
       <c r="H24" t="n">
         <v>118.4659946199538</v>
       </c>
       <c r="I24" t="n">
-        <v>88.00944934109815</v>
+        <v>88.00944934109816</v>
       </c>
       <c r="J24" t="n">
-        <v>63.06819898033912</v>
+        <v>63.06819898033913</v>
       </c>
       <c r="K24" t="n">
-        <v>11.48159118566198</v>
+        <v>11.48159118566201</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,16 +24329,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.9176127478661</v>
+        <v>9.502248697656114</v>
       </c>
       <c r="R24" t="n">
         <v>117.4842069520851</v>
       </c>
       <c r="S24" t="n">
-        <v>177.6096562585834</v>
+        <v>144.6542036031584</v>
       </c>
       <c r="T24" t="n">
-        <v>178.981548135084</v>
+        <v>211.937000790509</v>
       </c>
       <c r="U24" t="n">
         <v>237.1785495379934</v>
@@ -24347,10 +24347,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>229.2892195268016</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>179.8975503892606</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -24393,19 +24393,19 @@
         <v>62.88442388222433</v>
       </c>
       <c r="L25" t="n">
-        <v>43.61680293027463</v>
+        <v>43.61680293027464</v>
       </c>
       <c r="M25" t="n">
-        <v>41.97254530708391</v>
+        <v>41.97254530708392</v>
       </c>
       <c r="N25" t="n">
-        <v>31.29152027045163</v>
+        <v>31.29152027045164</v>
       </c>
       <c r="O25" t="n">
-        <v>53.9350750425105</v>
+        <v>53.93507504251052</v>
       </c>
       <c r="P25" t="n">
-        <v>69.64128415389854</v>
+        <v>69.64128415389855</v>
       </c>
       <c r="Q25" t="n">
         <v>116.718125520665</v>
@@ -24445,7 +24445,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>327.3514499365108</v>
       </c>
       <c r="D26" t="n">
         <v>337.7721596422273</v>
@@ -24496,16 +24496,16 @@
         <v>195.4595814361797</v>
       </c>
       <c r="T26" t="n">
-        <v>216.3076224445705</v>
+        <v>178.8922583943605</v>
       </c>
       <c r="U26" t="n">
         <v>212.6226335894598</v>
       </c>
       <c r="V26" t="n">
-        <v>283.464419558942</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>315.0424163810988</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
         <v>359.7827142947061</v>
@@ -24524,7 +24524,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>150.1027874741559</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -24539,16 +24539,16 @@
         <v>147.9919010994193</v>
       </c>
       <c r="H27" t="n">
-        <v>96.99213315019092</v>
+        <v>118.4659946199538</v>
       </c>
       <c r="I27" t="n">
-        <v>50.59408529088818</v>
+        <v>88.00944934109816</v>
       </c>
       <c r="J27" t="n">
-        <v>25.65283493012916</v>
+        <v>63.06819898033913</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>11.48159118566201</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24581,16 +24581,16 @@
         <v>237.1785495379934</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>203.2335568651922</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>229.2892195268016</v>
       </c>
       <c r="X27" t="n">
-        <v>179.8975503892606</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>190.4288334786007</v>
       </c>
     </row>
     <row r="28">
@@ -24682,7 +24682,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>327.3514499365107</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
@@ -24691,13 +24691,13 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>380.3452021953454</v>
       </c>
       <c r="G29" t="n">
-        <v>417.4313748003987</v>
+        <v>380.0160107501887</v>
       </c>
       <c r="H29" t="n">
-        <v>295.1986628791993</v>
+        <v>332.6140269294093</v>
       </c>
       <c r="I29" t="n">
         <v>186.7741830653387</v>
@@ -24745,10 +24745,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>322.3673502444962</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>344.8702033682399</v>
       </c>
     </row>
     <row r="30">
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.502248697656142</v>
+        <v>46.91761274786612</v>
       </c>
       <c r="R30" t="n">
         <v>117.4842069520851</v>
@@ -24815,19 +24815,19 @@
         <v>211.937000790509</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1785495379934</v>
+        <v>199.7631854877834</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>203.2335568651923</v>
       </c>
       <c r="W30" t="n">
-        <v>233.7491309215867</v>
+        <v>229.2892195268016</v>
       </c>
       <c r="X30" t="n">
-        <v>179.8975503892606</v>
+        <v>184.3574617840457</v>
       </c>
       <c r="Y30" t="n">
-        <v>185.9689220838156</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -24919,7 +24919,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>312.7901333309688</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
         <v>337.7721596422273</v>
@@ -24964,10 +24964,10 @@
         <v>75.37347594138166</v>
       </c>
       <c r="R32" t="n">
-        <v>149.0960004006322</v>
+        <v>111.6806363504222</v>
       </c>
       <c r="S32" t="n">
-        <v>195.4595814361797</v>
+        <v>158.0442173859697</v>
       </c>
       <c r="T32" t="n">
         <v>216.3076224445705</v>
@@ -24976,13 +24976,13 @@
         <v>250.0379976396698</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>298.0257361644839</v>
       </c>
       <c r="W32" t="n">
-        <v>300.4810997755569</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>336.928666850038</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
         <v>382.2855674184499</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>143.7950417422408</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>150.1027874741559</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -25010,7 +25010,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9919010994193</v>
+        <v>110.5765370492093</v>
       </c>
       <c r="H33" t="n">
         <v>118.4659946199538</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.502248697656142</v>
+        <v>46.91761274786612</v>
       </c>
       <c r="R33" t="n">
         <v>117.4842069520851</v>
@@ -25049,7 +25049,7 @@
         <v>177.6096562585834</v>
       </c>
       <c r="T33" t="n">
-        <v>211.937000790509</v>
+        <v>174.521636740299</v>
       </c>
       <c r="U33" t="n">
         <v>237.1785495379934</v>
@@ -25058,13 +25058,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>229.2892195268016</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>179.8975503892606</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>190.4288334786007</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -25168,7 +25168,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.4313748003987</v>
+        <v>392.5939307295218</v>
       </c>
       <c r="H35" t="n">
         <v>332.6140269294093</v>
@@ -25198,22 +25198,22 @@
         <v>21.31820101697821</v>
       </c>
       <c r="Q35" t="n">
-        <v>75.37347594138166</v>
+        <v>52.01882728153614</v>
       </c>
       <c r="R35" t="n">
-        <v>149.0960004006322</v>
+        <v>124.2585563297554</v>
       </c>
       <c r="S35" t="n">
-        <v>170.6221373653028</v>
+        <v>195.4595814361797</v>
       </c>
       <c r="T35" t="n">
         <v>216.3076224445705</v>
       </c>
       <c r="U35" t="n">
-        <v>225.2005535687929</v>
+        <v>250.0379976396698</v>
       </c>
       <c r="V35" t="n">
-        <v>297.5251349493065</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
         <v>337.8964638257669</v>
@@ -25235,13 +25235,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>162.680707453489</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>134.3348710057016</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>146.9901277689228</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -25286,16 +25286,16 @@
         <v>177.6096562585834</v>
       </c>
       <c r="T36" t="n">
-        <v>190.0601800528806</v>
+        <v>211.937000790509</v>
       </c>
       <c r="U36" t="n">
-        <v>212.3411054671165</v>
+        <v>215.301728800365</v>
       </c>
       <c r="V36" t="n">
-        <v>215.8114768445254</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>241.8671395061347</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -25399,10 +25399,10 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>348.1242634017906</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>378.3618055691365</v>
       </c>
       <c r="G38" t="n">
         <v>417.4313748003987</v>
@@ -25438,19 +25438,19 @@
         <v>75.37347594138166</v>
       </c>
       <c r="R38" t="n">
-        <v>124.2585563297554</v>
+        <v>149.0960004006322</v>
       </c>
       <c r="S38" t="n">
-        <v>170.6221373653028</v>
+        <v>195.4595814361797</v>
       </c>
       <c r="T38" t="n">
         <v>216.3076224445705</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0379976396698</v>
+        <v>225.2005535687929</v>
       </c>
       <c r="V38" t="n">
-        <v>297.5251349493065</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
         <v>337.8964638257669</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>154.8736736600374</v>
       </c>
       <c r="C39" t="n">
-        <v>162.680707453489</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>134.3348710057016</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>146.9901277689228</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>133.9859950490514</v>
       </c>
       <c r="G39" t="n">
         <v>147.9919010994193</v>
@@ -25517,13 +25517,13 @@
         <v>46.91761274786612</v>
       </c>
       <c r="R39" t="n">
-        <v>92.64676288120826</v>
+        <v>117.4842069520851</v>
       </c>
       <c r="S39" t="n">
         <v>177.6096562585834</v>
       </c>
       <c r="T39" t="n">
-        <v>187.0995567196321</v>
+        <v>211.937000790509</v>
       </c>
       <c r="U39" t="n">
         <v>237.1785495379934</v>
@@ -25535,7 +25535,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>195.4360937018423</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -25630,10 +25630,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>325.3680533103019</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>314.4175109823818</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
@@ -25672,7 +25672,7 @@
         <v>21.31820101697821</v>
       </c>
       <c r="Q41" t="n">
-        <v>50.53603187050479</v>
+        <v>50.53603187050476</v>
       </c>
       <c r="R41" t="n">
         <v>149.0960004006322</v>
@@ -25681,13 +25681,13 @@
         <v>195.4595814361797</v>
       </c>
       <c r="T41" t="n">
-        <v>216.3076224445705</v>
+        <v>191.4701783736936</v>
       </c>
       <c r="U41" t="n">
         <v>250.0379976396698</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>297.5251349493064</v>
       </c>
       <c r="W41" t="n">
         <v>337.8964638257669</v>
@@ -25718,7 +25718,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>133.9859950490514</v>
       </c>
       <c r="G42" t="n">
         <v>147.9919010994193</v>
@@ -25727,7 +25727,7 @@
         <v>118.4659946199538</v>
       </c>
       <c r="I42" t="n">
-        <v>66.13262860346984</v>
+        <v>88.00944934109816</v>
       </c>
       <c r="J42" t="n">
         <v>63.06819898033913</v>
@@ -25751,25 +25751,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.08016867698925</v>
+        <v>46.91761274786612</v>
       </c>
       <c r="R42" t="n">
-        <v>92.64676288120826</v>
+        <v>117.4842069520851</v>
       </c>
       <c r="S42" t="n">
-        <v>152.7722121877065</v>
+        <v>177.6096562585834</v>
       </c>
       <c r="T42" t="n">
         <v>211.937000790509</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1785495379934</v>
+        <v>212.3411054671165</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>215.8114768445253</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>244.8277628393832</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -25876,7 +25876,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>379.844600980168</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
         <v>417.4313748003987</v>
@@ -25921,19 +25921,19 @@
         <v>216.3076224445705</v>
       </c>
       <c r="U44" t="n">
-        <v>225.2005535687929</v>
+        <v>250.0379976396698</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>296.0423395382751</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>313.05901975489</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>336.4280656348606</v>
       </c>
       <c r="Y44" t="n">
-        <v>357.448123347573</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25988,28 +25988,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>25.04079201023779</v>
+        <v>46.91761274786612</v>
       </c>
       <c r="R45" t="n">
-        <v>92.64676288120826</v>
+        <v>117.4842069520851</v>
       </c>
       <c r="S45" t="n">
         <v>177.6096562585834</v>
       </c>
       <c r="T45" t="n">
-        <v>187.0995567196321</v>
+        <v>211.937000790509</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1785495379934</v>
+        <v>212.3411054671165</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>215.8114768445254</v>
       </c>
       <c r="W45" t="n">
         <v>241.8671395061347</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>195.4360937018423</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>272325.6584578713</v>
+        <v>272325.6584578712</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>331258.4285150344</v>
+        <v>331258.4285150345</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>331258.4285150346</v>
+        <v>331258.4285150344</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>331258.4285150346</v>
+        <v>331258.4285150345</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>331258.4285150345</v>
+        <v>331258.4285150344</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>336298.6815383689</v>
+        <v>336298.6815383687</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>336298.6815383687</v>
+        <v>336298.6815383689</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>336298.6815383688</v>
+        <v>336298.6815383687</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>336298.6815383688</v>
+        <v>336298.6815383687</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>331258.4285150344</v>
+        <v>331258.4285150345</v>
       </c>
     </row>
     <row r="15">
@@ -26322,16 +26322,16 @@
         <v>116310.614241646</v>
       </c>
       <c r="E2" t="n">
-        <v>132503.3714060138</v>
+        <v>132503.3714060137</v>
       </c>
       <c r="F2" t="n">
-        <v>132503.3714060138</v>
+        <v>132503.3714060137</v>
       </c>
       <c r="G2" t="n">
-        <v>132503.3714060138</v>
+        <v>132503.3714060137</v>
       </c>
       <c r="H2" t="n">
-        <v>132503.3714060138</v>
+        <v>132503.3714060137</v>
       </c>
       <c r="I2" t="n">
         <v>134519.4726153475</v>
@@ -26340,7 +26340,7 @@
         <v>134519.4726153475</v>
       </c>
       <c r="K2" t="n">
-        <v>134519.4726153474</v>
+        <v>134519.4726153475</v>
       </c>
       <c r="L2" t="n">
         <v>134519.4726153475</v>
@@ -26355,7 +26355,7 @@
         <v>132503.3714060137</v>
       </c>
       <c r="P2" t="n">
-        <v>132503.3714060138</v>
+        <v>132503.3714060137</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>327567.4262574749</v>
       </c>
       <c r="C3" t="n">
-        <v>20036.47966838044</v>
+        <v>20036.47966838039</v>
       </c>
       <c r="D3" t="n">
         <v>24186.52745747732</v>
       </c>
       <c r="E3" t="n">
-        <v>56367.69329896844</v>
+        <v>56367.69329896838</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.145168425864541e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3344.733058824227</v>
+        <v>3344.733058824238</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3055.122441709101</v>
+        <v>3055.12244170908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>15.15159353305525</v>
+        <v>15.15159353305524</v>
       </c>
       <c r="F4" t="n">
-        <v>15.15159353305525</v>
+        <v>15.15159353305524</v>
       </c>
       <c r="G4" t="n">
-        <v>15.15159353305525</v>
+        <v>15.15159353305524</v>
       </c>
       <c r="H4" t="n">
-        <v>15.15159353305525</v>
+        <v>15.15159353305523</v>
       </c>
       <c r="I4" t="n">
+        <v>21.32270222400634</v>
+      </c>
+      <c r="J4" t="n">
         <v>21.32270222400633</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21.32270222400632</v>
       </c>
       <c r="K4" t="n">
         <v>21.32270222400632</v>
       </c>
       <c r="L4" t="n">
-        <v>21.32270222400632</v>
+        <v>21.32270222400634</v>
       </c>
       <c r="M4" t="n">
-        <v>15.15159353305522</v>
+        <v>15.15159353305523</v>
       </c>
       <c r="N4" t="n">
-        <v>15.15159353305522</v>
+        <v>15.15159353305523</v>
       </c>
       <c r="O4" t="n">
-        <v>15.15159353305522</v>
+        <v>15.15159353305524</v>
       </c>
       <c r="P4" t="n">
         <v>15.15159353305522</v>
@@ -26490,16 +26490,16 @@
         <v>11344.36750670299</v>
       </c>
       <c r="I5" t="n">
-        <v>12109.10504144644</v>
+        <v>12109.10504144645</v>
       </c>
       <c r="J5" t="n">
-        <v>12109.10504144644</v>
+        <v>12109.10504144645</v>
       </c>
       <c r="K5" t="n">
         <v>12109.10504144644</v>
       </c>
       <c r="L5" t="n">
-        <v>12109.10504144644</v>
+        <v>12109.10504144645</v>
       </c>
       <c r="M5" t="n">
         <v>11344.36750670299</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-265643.4020092656</v>
+        <v>-282588.2535119698</v>
       </c>
       <c r="C6" t="n">
-        <v>47375.88612522564</v>
+        <v>30729.43557291972</v>
       </c>
       <c r="D6" t="n">
-        <v>49990.52165699474</v>
+        <v>33713.08864761364</v>
       </c>
       <c r="E6" t="n">
-        <v>64776.15900680926</v>
+        <v>49308.36385564659</v>
       </c>
       <c r="F6" t="n">
-        <v>121143.8523057777</v>
+        <v>105676.0571546149</v>
       </c>
       <c r="G6" t="n">
-        <v>121143.8523057777</v>
+        <v>105676.057154615</v>
       </c>
       <c r="H6" t="n">
-        <v>121143.8523057777</v>
+        <v>105676.057154615</v>
       </c>
       <c r="I6" t="n">
-        <v>119044.3118128528</v>
+        <v>103677.3217221568</v>
       </c>
       <c r="J6" t="n">
-        <v>122389.044871677</v>
+        <v>107022.054780981</v>
       </c>
       <c r="K6" t="n">
-        <v>122389.044871677</v>
+        <v>107022.054780981</v>
       </c>
       <c r="L6" t="n">
-        <v>122389.0448716771</v>
+        <v>107022.054780981</v>
       </c>
       <c r="M6" t="n">
-        <v>118088.7298640686</v>
+        <v>102620.9347129059</v>
       </c>
       <c r="N6" t="n">
-        <v>121143.8523057777</v>
+        <v>105676.057154615</v>
       </c>
       <c r="O6" t="n">
-        <v>121143.8523057776</v>
+        <v>105676.057154615</v>
       </c>
       <c r="P6" t="n">
-        <v>121143.8523057777</v>
+        <v>105676.057154615</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>390.181886567612</v>
       </c>
       <c r="E3" t="n">
-        <v>451.1124269354899</v>
+        <v>451.1124269354898</v>
       </c>
       <c r="F3" t="n">
-        <v>451.1124269354899</v>
+        <v>451.1124269354897</v>
       </c>
       <c r="G3" t="n">
-        <v>451.1124269354899</v>
+        <v>451.1124269354898</v>
       </c>
       <c r="H3" t="n">
-        <v>451.1124269354899</v>
+        <v>451.1124269354898</v>
       </c>
       <c r="I3" t="n">
-        <v>451.1124269354899</v>
+        <v>451.1124269354898</v>
       </c>
       <c r="J3" t="n">
         <v>451.1124269354898</v>
@@ -26798,37 +26798,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="F4" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="G4" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="H4" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="I4" t="n">
-        <v>37.41536405020997</v>
+        <v>37.41536405021</v>
       </c>
       <c r="J4" t="n">
-        <v>37.41536405020997</v>
+        <v>37.41536405021</v>
       </c>
       <c r="K4" t="n">
         <v>37.41536405020997</v>
       </c>
       <c r="L4" t="n">
-        <v>37.41536405020997</v>
+        <v>37.41536405021</v>
       </c>
       <c r="M4" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="N4" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="O4" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="P4" t="n">
         <v>24.83744407087687</v>
@@ -26962,16 +26962,16 @@
         <v>339.9367030721617</v>
       </c>
       <c r="C3" t="n">
-        <v>22.00355332887523</v>
+        <v>22.00355332887517</v>
       </c>
       <c r="D3" t="n">
         <v>28.24163016657519</v>
       </c>
       <c r="E3" t="n">
-        <v>60.93054036787782</v>
+        <v>60.93054036787777</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.448764209862218e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.57791997933306</v>
+        <v>12.5779199793331</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>12.25952409154388</v>
+        <v>12.2595240915438</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31068,7 +31068,7 @@
         <v>230.2533072552751</v>
       </c>
       <c r="P2" t="n">
-        <v>196.5158706438419</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q2" t="n">
         <v>147.575234749282</v>
@@ -31080,7 +31080,7 @@
         <v>31.1409351608317</v>
       </c>
       <c r="T2" t="n">
-        <v>5.982202684214622</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U2" t="n">
         <v>0.1093263768674288</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H3" t="n">
         <v>7.061703963819812</v>
@@ -31147,7 +31147,7 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P3" t="n">
-        <v>139.6241903618469</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q3" t="n">
         <v>93.33507364351127</v>
@@ -31232,13 +31232,13 @@
         <v>51.33044216389641</v>
       </c>
       <c r="R4" t="n">
-        <v>27.56273661303132</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S4" t="n">
         <v>10.68292884900547</v>
       </c>
       <c r="T4" t="n">
-        <v>2.619184433506818</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U4" t="n">
         <v>0.03343639702349135</v>
@@ -31299,7 +31299,7 @@
         <v>255.4916263187078</v>
       </c>
       <c r="N5" t="n">
-        <v>259.6257479408162</v>
+        <v>259.6257479408161</v>
       </c>
       <c r="O5" t="n">
         <v>245.1572316610661</v>
@@ -31357,10 +31357,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7785130043343056</v>
+        <v>0.7785130043343057</v>
       </c>
       <c r="H6" t="n">
-        <v>7.518796647123428</v>
+        <v>7.518796647123427</v>
       </c>
       <c r="I6" t="n">
         <v>26.80406615800132</v>
@@ -31387,10 +31387,10 @@
         <v>148.6618385206447</v>
       </c>
       <c r="Q6" t="n">
-        <v>99.37650209712999</v>
+        <v>99.37650209712997</v>
       </c>
       <c r="R6" t="n">
-        <v>48.33609688314225</v>
+        <v>48.33609688314226</v>
       </c>
       <c r="S6" t="n">
         <v>14.46053760243764</v>
@@ -31439,13 +31439,13 @@
         <v>0.6526791508871155</v>
       </c>
       <c r="H7" t="n">
-        <v>5.802910996069087</v>
+        <v>5.802910996069086</v>
       </c>
       <c r="I7" t="n">
-        <v>19.62784210122345</v>
+        <v>19.62784210122344</v>
       </c>
       <c r="J7" t="n">
-        <v>46.14441596771907</v>
+        <v>46.14441596771906</v>
       </c>
       <c r="K7" t="n">
         <v>75.82945043943032</v>
@@ -31469,10 +31469,10 @@
         <v>54.65297871655656</v>
       </c>
       <c r="R7" t="n">
-        <v>29.34682800261521</v>
+        <v>29.3468280026152</v>
       </c>
       <c r="S7" t="n">
-        <v>11.37441756591454</v>
+        <v>11.37441756591455</v>
       </c>
       <c r="T7" t="n">
         <v>2.788720008335857</v>
@@ -31521,13 +31521,13 @@
         <v>16.06412159119821</v>
       </c>
       <c r="I8" t="n">
-        <v>60.47231027898639</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J8" t="n">
         <v>133.1304518394688</v>
       </c>
       <c r="K8" t="n">
-        <v>199.5280367978889</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L8" t="n">
         <v>247.5321731236922</v>
@@ -31542,7 +31542,7 @@
         <v>264.2864656901256</v>
       </c>
       <c r="P8" t="n">
-        <v>225.5623839830384</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q8" t="n">
         <v>169.3879565952893</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8392591522397692</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H9" t="n">
         <v>8.105476549263036</v>
@@ -31627,16 +31627,16 @@
         <v>107.1306945911678</v>
       </c>
       <c r="R9" t="n">
-        <v>52.10768666274639</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S9" t="n">
         <v>15.5888706567343</v>
       </c>
       <c r="T9" t="n">
-        <v>3.382803337317314</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05521441791051115</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7036066806956937</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H10" t="n">
         <v>6.255703033821718</v>
       </c>
       <c r="I10" t="n">
-        <v>21.1593718158305</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J10" t="n">
         <v>49.74499232518554</v>
@@ -31712,7 +31712,7 @@
         <v>12.26194551721495</v>
       </c>
       <c r="T10" t="n">
-        <v>3.006319453881599</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U10" t="n">
         <v>0.03837854621976516</v>
@@ -31755,10 +31755,10 @@
         <v>1.813517294213023</v>
       </c>
       <c r="H11" t="n">
-        <v>18.57268398935913</v>
+        <v>18.57268398935912</v>
       </c>
       <c r="I11" t="n">
-        <v>69.91562548514764</v>
+        <v>69.91562548514763</v>
       </c>
       <c r="J11" t="n">
         <v>153.9200134497127</v>
@@ -31770,7 +31770,7 @@
         <v>286.1866304065219</v>
       </c>
       <c r="M11" t="n">
-        <v>305.8598486081497</v>
+        <v>305.8598486081496</v>
       </c>
       <c r="N11" t="n">
         <v>304.7213816587179</v>
@@ -31788,7 +31788,7 @@
         <v>113.9183557326089</v>
       </c>
       <c r="S11" t="n">
-        <v>41.32552534187931</v>
+        <v>41.3255253418793</v>
       </c>
       <c r="T11" t="n">
         <v>7.938671955417512</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9703172956725631</v>
+        <v>0.970317295672563</v>
       </c>
       <c r="H12" t="n">
         <v>9.371222302942913</v>
       </c>
       <c r="I12" t="n">
-        <v>33.40785425890185</v>
+        <v>33.40785425890184</v>
       </c>
       <c r="J12" t="n">
-        <v>91.67370555299424</v>
+        <v>91.67370555299422</v>
       </c>
       <c r="K12" t="n">
-        <v>156.684964363056</v>
+        <v>156.6849643630559</v>
       </c>
       <c r="L12" t="n">
-        <v>171.0309856567</v>
+        <v>192.8702543085506</v>
       </c>
       <c r="M12" t="n">
         <v>198.2409654557393</v>
@@ -31858,7 +31858,7 @@
         <v>198.8048622930991</v>
       </c>
       <c r="P12" t="n">
-        <v>185.2880456973336</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q12" t="n">
         <v>123.8601516370802</v>
@@ -31867,13 +31867,13 @@
         <v>60.24478788395091</v>
       </c>
       <c r="S12" t="n">
-        <v>18.02321818935659</v>
+        <v>18.02321818935658</v>
       </c>
       <c r="T12" t="n">
-        <v>3.911059625978444</v>
+        <v>3.911059625978443</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06383666418898444</v>
+        <v>0.06383666418898443</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.813481425621375</v>
+        <v>0.8134814256213749</v>
       </c>
       <c r="H13" t="n">
-        <v>7.232589402342776</v>
+        <v>7.232589402342775</v>
       </c>
       <c r="I13" t="n">
-        <v>24.463605054141</v>
+        <v>24.46360505414099</v>
       </c>
       <c r="J13" t="n">
-        <v>57.51313679143122</v>
+        <v>57.51313679143121</v>
       </c>
       <c r="K13" t="n">
         <v>94.51175108582882</v>
@@ -31928,7 +31928,7 @@
         <v>120.9425021328361</v>
       </c>
       <c r="M13" t="n">
-        <v>127.5169111089943</v>
+        <v>127.5169111089942</v>
       </c>
       <c r="N13" t="n">
         <v>124.4848439771329</v>
@@ -31937,22 +31937,22 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P13" t="n">
-        <v>98.38688078606154</v>
+        <v>98.38688078606152</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.11797646725897</v>
+        <v>68.11797646725896</v>
       </c>
       <c r="R13" t="n">
-        <v>36.577083010212</v>
+        <v>36.57708301021199</v>
       </c>
       <c r="S13" t="n">
         <v>14.17676266287432</v>
       </c>
       <c r="T13" t="n">
-        <v>3.475784273109511</v>
+        <v>3.47578427310951</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04437171412480233</v>
+        <v>0.04437171412480232</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,10 +31992,10 @@
         <v>1.813517294213023</v>
       </c>
       <c r="H14" t="n">
-        <v>18.57268398935913</v>
+        <v>18.57268398935912</v>
       </c>
       <c r="I14" t="n">
-        <v>69.91562548514764</v>
+        <v>69.91562548514763</v>
       </c>
       <c r="J14" t="n">
         <v>153.9200134497127</v>
@@ -32004,10 +32004,10 @@
         <v>230.68620051375</v>
       </c>
       <c r="L14" t="n">
-        <v>286.1866304065219</v>
+        <v>286.1866304065218</v>
       </c>
       <c r="M14" t="n">
-        <v>305.8598486081497</v>
+        <v>305.8598486081496</v>
       </c>
       <c r="N14" t="n">
         <v>304.7213816587179</v>
@@ -32016,7 +32016,7 @@
         <v>305.5572620053347</v>
       </c>
       <c r="P14" t="n">
-        <v>260.7860538044507</v>
+        <v>260.7860538044506</v>
       </c>
       <c r="Q14" t="n">
         <v>195.8394657054467</v>
@@ -32025,10 +32025,10 @@
         <v>113.9183557326089</v>
       </c>
       <c r="S14" t="n">
-        <v>41.32552534187931</v>
+        <v>41.3255253418793</v>
       </c>
       <c r="T14" t="n">
-        <v>7.938671955417512</v>
+        <v>7.938671955417511</v>
       </c>
       <c r="U14" t="n">
         <v>0.1450813835370418</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9703172956725631</v>
+        <v>0.9703172956725629</v>
       </c>
       <c r="H15" t="n">
-        <v>9.371222302942913</v>
+        <v>9.371222302942911</v>
       </c>
       <c r="I15" t="n">
-        <v>33.40785425890185</v>
+        <v>33.40785425890184</v>
       </c>
       <c r="J15" t="n">
-        <v>91.67370555299424</v>
+        <v>91.67370555299421</v>
       </c>
       <c r="K15" t="n">
-        <v>156.684964363056</v>
+        <v>156.6849643630559</v>
       </c>
       <c r="L15" t="n">
-        <v>171.0309856567</v>
+        <v>193.8737874023234</v>
       </c>
       <c r="M15" t="n">
         <v>198.2409654557393</v>
@@ -32092,25 +32092,25 @@
         <v>185.0743328125436</v>
       </c>
       <c r="O15" t="n">
-        <v>198.8048622930991</v>
+        <v>175.9620605474757</v>
       </c>
       <c r="P15" t="n">
-        <v>185.2880456973336</v>
+        <v>185.2880456973335</v>
       </c>
       <c r="Q15" t="n">
-        <v>123.8601516370802</v>
+        <v>123.8601516370801</v>
       </c>
       <c r="R15" t="n">
-        <v>60.24478788395091</v>
+        <v>60.2447878839509</v>
       </c>
       <c r="S15" t="n">
-        <v>18.02321818935659</v>
+        <v>18.02321818935658</v>
       </c>
       <c r="T15" t="n">
-        <v>3.911059625978444</v>
+        <v>3.911059625978443</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06383666418898444</v>
+        <v>0.06383666418898443</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.813481425621375</v>
+        <v>0.8134814256213748</v>
       </c>
       <c r="H16" t="n">
-        <v>7.232589402342776</v>
+        <v>7.232589402342774</v>
       </c>
       <c r="I16" t="n">
-        <v>24.463605054141</v>
+        <v>24.46360505414099</v>
       </c>
       <c r="J16" t="n">
-        <v>57.51313679143122</v>
+        <v>57.5131367914312</v>
       </c>
       <c r="K16" t="n">
-        <v>94.51175108582882</v>
+        <v>94.51175108582881</v>
       </c>
       <c r="L16" t="n">
         <v>120.9425021328361</v>
       </c>
       <c r="M16" t="n">
-        <v>127.5169111089943</v>
+        <v>127.5169111089942</v>
       </c>
       <c r="N16" t="n">
-        <v>124.4848439771329</v>
+        <v>124.4848439771328</v>
       </c>
       <c r="O16" t="n">
         <v>114.9819018687377</v>
       </c>
       <c r="P16" t="n">
-        <v>98.38688078606154</v>
+        <v>98.38688078606151</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.11797646725897</v>
+        <v>68.11797646725894</v>
       </c>
       <c r="R16" t="n">
-        <v>36.577083010212</v>
+        <v>36.57708301021199</v>
       </c>
       <c r="S16" t="n">
         <v>14.17676266287432</v>
       </c>
       <c r="T16" t="n">
-        <v>3.475784273109511</v>
+        <v>3.47578427310951</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04437171412480233</v>
+        <v>0.04437171412480231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,10 +32229,10 @@
         <v>1.813517294213023</v>
       </c>
       <c r="H17" t="n">
-        <v>18.57268398935913</v>
+        <v>18.57268398935912</v>
       </c>
       <c r="I17" t="n">
-        <v>69.91562548514764</v>
+        <v>69.91562548514763</v>
       </c>
       <c r="J17" t="n">
         <v>153.9200134497127</v>
@@ -32244,7 +32244,7 @@
         <v>286.1866304065219</v>
       </c>
       <c r="M17" t="n">
-        <v>305.8598486081497</v>
+        <v>305.8598486081496</v>
       </c>
       <c r="N17" t="n">
         <v>304.7213816587179</v>
@@ -32262,7 +32262,7 @@
         <v>113.9183557326089</v>
       </c>
       <c r="S17" t="n">
-        <v>41.32552534187931</v>
+        <v>41.3255253418793</v>
       </c>
       <c r="T17" t="n">
         <v>7.938671955417512</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9703172956725631</v>
+        <v>0.970317295672563</v>
       </c>
       <c r="H18" t="n">
         <v>9.371222302942913</v>
       </c>
       <c r="I18" t="n">
-        <v>33.40785425890185</v>
+        <v>33.40785425890184</v>
       </c>
       <c r="J18" t="n">
-        <v>91.67370555299424</v>
+        <v>91.67370555299422</v>
       </c>
       <c r="K18" t="n">
-        <v>156.684964363056</v>
+        <v>156.6849643630559</v>
       </c>
       <c r="L18" t="n">
         <v>193.8737874023234</v>
@@ -32341,13 +32341,13 @@
         <v>60.24478788395091</v>
       </c>
       <c r="S18" t="n">
-        <v>18.02321818935659</v>
+        <v>18.02321818935658</v>
       </c>
       <c r="T18" t="n">
-        <v>3.911059625978444</v>
+        <v>3.911059625978443</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06383666418898444</v>
+        <v>0.06383666418898443</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.813481425621375</v>
+        <v>0.8134814256213749</v>
       </c>
       <c r="H19" t="n">
-        <v>7.232589402342776</v>
+        <v>7.232589402342775</v>
       </c>
       <c r="I19" t="n">
-        <v>24.463605054141</v>
+        <v>24.46360505414099</v>
       </c>
       <c r="J19" t="n">
-        <v>57.51313679143122</v>
+        <v>57.51313679143121</v>
       </c>
       <c r="K19" t="n">
         <v>94.51175108582882</v>
@@ -32402,7 +32402,7 @@
         <v>120.9425021328361</v>
       </c>
       <c r="M19" t="n">
-        <v>127.5169111089943</v>
+        <v>127.5169111089942</v>
       </c>
       <c r="N19" t="n">
         <v>124.4848439771329</v>
@@ -32411,22 +32411,22 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P19" t="n">
-        <v>98.38688078606154</v>
+        <v>98.38688078606152</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.11797646725897</v>
+        <v>68.11797646725896</v>
       </c>
       <c r="R19" t="n">
-        <v>36.577083010212</v>
+        <v>36.57708301021199</v>
       </c>
       <c r="S19" t="n">
         <v>14.17676266287432</v>
       </c>
       <c r="T19" t="n">
-        <v>3.475784273109511</v>
+        <v>3.47578427310951</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04437171412480233</v>
+        <v>0.04437171412480232</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,10 +32466,10 @@
         <v>1.813517294213023</v>
       </c>
       <c r="H20" t="n">
-        <v>18.57268398935913</v>
+        <v>18.57268398935912</v>
       </c>
       <c r="I20" t="n">
-        <v>69.91562548514764</v>
+        <v>69.91562548514763</v>
       </c>
       <c r="J20" t="n">
         <v>153.9200134497127</v>
@@ -32481,7 +32481,7 @@
         <v>286.1866304065219</v>
       </c>
       <c r="M20" t="n">
-        <v>305.8598486081497</v>
+        <v>305.8598486081496</v>
       </c>
       <c r="N20" t="n">
         <v>304.7213816587179</v>
@@ -32499,7 +32499,7 @@
         <v>113.9183557326089</v>
       </c>
       <c r="S20" t="n">
-        <v>41.32552534187931</v>
+        <v>41.3255253418793</v>
       </c>
       <c r="T20" t="n">
         <v>7.938671955417512</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9703172956725631</v>
+        <v>0.970317295672563</v>
       </c>
       <c r="H21" t="n">
         <v>9.371222302942913</v>
       </c>
       <c r="I21" t="n">
-        <v>33.40785425890185</v>
+        <v>33.40785425890184</v>
       </c>
       <c r="J21" t="n">
-        <v>91.67370555299424</v>
+        <v>91.67370555299422</v>
       </c>
       <c r="K21" t="n">
-        <v>156.684964363056</v>
+        <v>156.6849643630559</v>
       </c>
       <c r="L21" t="n">
-        <v>171.0309856567</v>
+        <v>193.8737874023234</v>
       </c>
       <c r="M21" t="n">
         <v>198.2409654557393</v>
       </c>
       <c r="N21" t="n">
-        <v>185.0743328125436</v>
+        <v>184.0707997187708</v>
       </c>
       <c r="O21" t="n">
         <v>198.8048622930991</v>
       </c>
       <c r="P21" t="n">
-        <v>185.2880456973336</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
         <v>123.8601516370802</v>
@@ -32578,13 +32578,13 @@
         <v>60.24478788395091</v>
       </c>
       <c r="S21" t="n">
-        <v>18.02321818935659</v>
+        <v>18.02321818935658</v>
       </c>
       <c r="T21" t="n">
-        <v>3.911059625978444</v>
+        <v>3.911059625978443</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06383666418898444</v>
+        <v>0.06383666418898443</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.813481425621375</v>
+        <v>0.8134814256213749</v>
       </c>
       <c r="H22" t="n">
-        <v>7.232589402342776</v>
+        <v>7.232589402342775</v>
       </c>
       <c r="I22" t="n">
-        <v>24.463605054141</v>
+        <v>24.46360505414099</v>
       </c>
       <c r="J22" t="n">
-        <v>57.51313679143122</v>
+        <v>57.51313679143121</v>
       </c>
       <c r="K22" t="n">
         <v>94.51175108582882</v>
@@ -32639,7 +32639,7 @@
         <v>120.9425021328361</v>
       </c>
       <c r="M22" t="n">
-        <v>127.5169111089943</v>
+        <v>127.5169111089942</v>
       </c>
       <c r="N22" t="n">
         <v>124.4848439771329</v>
@@ -32648,22 +32648,22 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P22" t="n">
-        <v>98.38688078606154</v>
+        <v>98.38688078606152</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.11797646725897</v>
+        <v>68.11797646725896</v>
       </c>
       <c r="R22" t="n">
-        <v>36.577083010212</v>
+        <v>36.57708301021199</v>
       </c>
       <c r="S22" t="n">
         <v>14.17676266287432</v>
       </c>
       <c r="T22" t="n">
-        <v>3.475784273109511</v>
+        <v>3.47578427310951</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04437171412480233</v>
+        <v>0.04437171412480232</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,10 +32703,10 @@
         <v>1.813517294213023</v>
       </c>
       <c r="H23" t="n">
-        <v>18.57268398935913</v>
+        <v>18.57268398935912</v>
       </c>
       <c r="I23" t="n">
-        <v>69.91562548514764</v>
+        <v>69.91562548514763</v>
       </c>
       <c r="J23" t="n">
         <v>153.9200134497127</v>
@@ -32736,7 +32736,7 @@
         <v>113.9183557326089</v>
       </c>
       <c r="S23" t="n">
-        <v>41.32552534187931</v>
+        <v>41.3255253418793</v>
       </c>
       <c r="T23" t="n">
         <v>7.938671955417512</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9703172956725631</v>
+        <v>0.970317295672563</v>
       </c>
       <c r="H24" t="n">
         <v>9.371222302942913</v>
       </c>
       <c r="I24" t="n">
-        <v>33.40785425890185</v>
+        <v>33.40785425890184</v>
       </c>
       <c r="J24" t="n">
-        <v>91.67370555299424</v>
+        <v>91.67370555299422</v>
       </c>
       <c r="K24" t="n">
-        <v>156.684964363056</v>
+        <v>156.6849643630559</v>
       </c>
       <c r="L24" t="n">
-        <v>206.4517073816565</v>
+        <v>204.9399755008399</v>
       </c>
       <c r="M24" t="n">
-        <v>210.8188854350723</v>
+        <v>210.8188854350724</v>
       </c>
       <c r="N24" t="n">
-        <v>174.3012522592094</v>
+        <v>197.6522527918767</v>
       </c>
       <c r="O24" t="n">
         <v>211.3827822724322</v>
       </c>
       <c r="P24" t="n">
-        <v>185.2880456973336</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q24" t="n">
         <v>123.8601516370802</v>
@@ -32815,13 +32815,13 @@
         <v>60.24478788395091</v>
       </c>
       <c r="S24" t="n">
-        <v>18.02321818935659</v>
+        <v>18.02321818935658</v>
       </c>
       <c r="T24" t="n">
-        <v>3.911059625978444</v>
+        <v>3.911059625978443</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06383666418898444</v>
+        <v>0.06383666418898443</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.813481425621375</v>
+        <v>0.8134814256213749</v>
       </c>
       <c r="H25" t="n">
-        <v>7.232589402342776</v>
+        <v>7.232589402342775</v>
       </c>
       <c r="I25" t="n">
-        <v>24.463605054141</v>
+        <v>24.46360505414099</v>
       </c>
       <c r="J25" t="n">
-        <v>57.51313679143122</v>
+        <v>57.51313679143121</v>
       </c>
       <c r="K25" t="n">
         <v>94.51175108582882</v>
@@ -32876,7 +32876,7 @@
         <v>120.9425021328361</v>
       </c>
       <c r="M25" t="n">
-        <v>127.5169111089943</v>
+        <v>127.5169111089942</v>
       </c>
       <c r="N25" t="n">
         <v>124.4848439771329</v>
@@ -32885,22 +32885,22 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P25" t="n">
-        <v>98.38688078606154</v>
+        <v>98.38688078606152</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.11797646725897</v>
+        <v>68.11797646725896</v>
       </c>
       <c r="R25" t="n">
-        <v>36.577083010212</v>
+        <v>36.57708301021199</v>
       </c>
       <c r="S25" t="n">
         <v>14.17676266287432</v>
       </c>
       <c r="T25" t="n">
-        <v>3.475784273109511</v>
+        <v>3.47578427310951</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04437171412480233</v>
+        <v>0.04437171412480232</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33031,19 +33031,19 @@
         <v>156.6849643630559</v>
       </c>
       <c r="L27" t="n">
-        <v>183.1007068489893</v>
+        <v>206.4517073816565</v>
       </c>
       <c r="M27" t="n">
-        <v>210.8188854350723</v>
+        <v>210.8188854350724</v>
       </c>
       <c r="N27" t="n">
-        <v>197.6522527918766</v>
+        <v>197.6522527918767</v>
       </c>
       <c r="O27" t="n">
-        <v>211.3827822724322</v>
+        <v>209.8710503916156</v>
       </c>
       <c r="P27" t="n">
-        <v>185.2880456973336</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q27" t="n">
         <v>123.8601516370802</v>
@@ -33268,7 +33268,7 @@
         <v>156.6849643630559</v>
       </c>
       <c r="L30" t="n">
-        <v>183.1007068489893</v>
+        <v>206.4517073816565</v>
       </c>
       <c r="M30" t="n">
         <v>210.8188854350723</v>
@@ -33277,7 +33277,7 @@
         <v>197.6522527918766</v>
       </c>
       <c r="O30" t="n">
-        <v>211.3827822724322</v>
+        <v>188.0317817397649</v>
       </c>
       <c r="P30" t="n">
         <v>185.2880456973336</v>
@@ -33508,10 +33508,10 @@
         <v>206.4517073816565</v>
       </c>
       <c r="M33" t="n">
-        <v>210.8188854350723</v>
+        <v>210.8188854350724</v>
       </c>
       <c r="N33" t="n">
-        <v>197.6522527918766</v>
+        <v>197.6522527918767</v>
       </c>
       <c r="O33" t="n">
         <v>209.8710503916156</v>
@@ -33669,7 +33669,7 @@
         <v>305.8598486081496</v>
       </c>
       <c r="N35" t="n">
-        <v>304.7213816587178</v>
+        <v>304.7213816587179</v>
       </c>
       <c r="O35" t="n">
         <v>305.5572620053347</v>
@@ -33742,13 +33742,13 @@
         <v>156.6849643630559</v>
       </c>
       <c r="L36" t="n">
-        <v>171.0309856566999</v>
+        <v>193.8737874023234</v>
       </c>
       <c r="M36" t="n">
-        <v>198.2409654557392</v>
+        <v>175.3981637101158</v>
       </c>
       <c r="N36" t="n">
-        <v>185.0743328125435</v>
+        <v>185.0743328125436</v>
       </c>
       <c r="O36" t="n">
         <v>198.8048622930991</v>
@@ -33906,7 +33906,7 @@
         <v>305.8598486081496</v>
       </c>
       <c r="N38" t="n">
-        <v>304.7213816587178</v>
+        <v>304.7213816587179</v>
       </c>
       <c r="O38" t="n">
         <v>305.5572620053347</v>
@@ -33979,13 +33979,13 @@
         <v>156.6849643630559</v>
       </c>
       <c r="L39" t="n">
-        <v>171.0309856566999</v>
+        <v>171.0309856567</v>
       </c>
       <c r="M39" t="n">
-        <v>198.2409654557392</v>
+        <v>198.2409654557393</v>
       </c>
       <c r="N39" t="n">
-        <v>185.0743328125435</v>
+        <v>185.0743328125436</v>
       </c>
       <c r="O39" t="n">
         <v>198.8048622930991</v>
@@ -34143,7 +34143,7 @@
         <v>305.8598486081496</v>
       </c>
       <c r="N41" t="n">
-        <v>304.7213816587178</v>
+        <v>304.7213816587179</v>
       </c>
       <c r="O41" t="n">
         <v>305.5572620053347</v>
@@ -34216,16 +34216,16 @@
         <v>156.6849643630559</v>
       </c>
       <c r="L42" t="n">
-        <v>171.0309856566999</v>
+        <v>193.8737874023234</v>
       </c>
       <c r="M42" t="n">
-        <v>198.2409654557392</v>
+        <v>198.2409654557393</v>
       </c>
       <c r="N42" t="n">
-        <v>185.0743328125435</v>
+        <v>185.0743328125436</v>
       </c>
       <c r="O42" t="n">
-        <v>198.8048622930991</v>
+        <v>175.9620605474756</v>
       </c>
       <c r="P42" t="n">
         <v>185.2880456973336</v>
@@ -34453,7 +34453,7 @@
         <v>156.6849643630559</v>
       </c>
       <c r="L45" t="n">
-        <v>193.8737874023234</v>
+        <v>171.0309856566999</v>
       </c>
       <c r="M45" t="n">
         <v>198.2409654557392</v>
@@ -34462,7 +34462,7 @@
         <v>185.0743328125435</v>
       </c>
       <c r="O45" t="n">
-        <v>175.9620605474756</v>
+        <v>198.8048622930991</v>
       </c>
       <c r="P45" t="n">
         <v>185.2880456973336</v>
@@ -35418,13 +35418,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="N11" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="O11" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1.994642325253443</v>
+        <v>23.8339109771041</v>
       </c>
       <c r="M12" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="N12" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="O12" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="P12" t="n">
-        <v>21.83926865185069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="N14" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="O14" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.994642325253443</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="M15" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="N15" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="O15" t="n">
-        <v>24.83744407087693</v>
+        <v>1.994642325253466</v>
       </c>
       <c r="P15" t="n">
-        <v>21.83926865185069</v>
+        <v>21.83926865185063</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,13 +35892,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="N17" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="O17" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="M18" t="n">
         <v>1.994642325253444</v>
       </c>
       <c r="N18" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="O18" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="P18" t="n">
-        <v>21.83926865185069</v>
+        <v>21.83926865185066</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,13 +36129,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="N20" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="O20" t="n">
-        <v>24.83744407087693</v>
+        <v>24.83744407087687</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.994642325253443</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="M21" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="N21" t="n">
-        <v>24.83744407087693</v>
+        <v>23.8339109771041</v>
       </c>
       <c r="O21" t="n">
-        <v>24.83744407087693</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="P21" t="n">
-        <v>21.83926865185069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,13 +36366,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>37.41536405020997</v>
+        <v>37.41536405021</v>
       </c>
       <c r="N23" t="n">
-        <v>37.41536405020997</v>
+        <v>37.41536405021</v>
       </c>
       <c r="O23" t="n">
-        <v>24.83744407087693</v>
+        <v>24.83744407087687</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>37.41536405020997</v>
+        <v>35.90363216939344</v>
       </c>
       <c r="M24" t="n">
-        <v>37.41536405020997</v>
+        <v>37.41536405021</v>
       </c>
       <c r="N24" t="n">
-        <v>14.06436351754272</v>
+        <v>37.41536405021</v>
       </c>
       <c r="O24" t="n">
-        <v>37.41536405020997</v>
+        <v>37.41536405021</v>
       </c>
       <c r="P24" t="n">
-        <v>21.83926865185069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>37.41536405020997</v>
       </c>
       <c r="N26" t="n">
-        <v>37.41536405020997</v>
+        <v>37.41536405021</v>
       </c>
       <c r="O26" t="n">
         <v>24.83744407087687</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>14.06436351754276</v>
+        <v>37.41536405021</v>
       </c>
       <c r="M27" t="n">
-        <v>37.41536405020997</v>
+        <v>37.41536405021</v>
       </c>
       <c r="N27" t="n">
-        <v>37.41536405020997</v>
+        <v>37.41536405021</v>
       </c>
       <c r="O27" t="n">
-        <v>37.41536405020997</v>
+        <v>35.90363216939343</v>
       </c>
       <c r="P27" t="n">
-        <v>21.83926865185066</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>14.06436351754276</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="M30" t="n">
         <v>37.41536405020997</v>
@@ -36925,7 +36925,7 @@
         <v>37.41536405020997</v>
       </c>
       <c r="O30" t="n">
-        <v>37.41536405020997</v>
+        <v>14.06436351754275</v>
       </c>
       <c r="P30" t="n">
         <v>21.83926865185066</v>
@@ -37077,10 +37077,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>37.41536405020997</v>
+        <v>37.41536405021</v>
       </c>
       <c r="N32" t="n">
-        <v>37.41536405020997</v>
+        <v>37.41536405021</v>
       </c>
       <c r="O32" t="n">
         <v>24.83744407087687</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>37.41536405020997</v>
+        <v>37.41536405021</v>
       </c>
       <c r="M33" t="n">
-        <v>37.41536405020997</v>
+        <v>37.41536405021</v>
       </c>
       <c r="N33" t="n">
-        <v>37.41536405020997</v>
+        <v>37.41536405021</v>
       </c>
       <c r="O33" t="n">
-        <v>35.9036321693934</v>
+        <v>35.90363216939343</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="N35" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="O35" t="n">
         <v>24.83744407087687</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1.994642325253419</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="M36" t="n">
-        <v>24.83744407087687</v>
+        <v>1.994642325253444</v>
       </c>
       <c r="N36" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="O36" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="P36" t="n">
         <v>21.83926865185066</v>
@@ -37551,10 +37551,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="N38" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="O38" t="n">
         <v>24.83744407087687</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1.994642325253419</v>
+        <v>1.994642325253446</v>
       </c>
       <c r="M39" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="N39" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="O39" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="P39" t="n">
         <v>21.83926865185066</v>
@@ -37788,13 +37788,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="N41" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="O41" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1.994642325253419</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="M42" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="N42" t="n">
-        <v>24.83744407087687</v>
+        <v>24.8374440708769</v>
       </c>
       <c r="O42" t="n">
-        <v>24.83744407087687</v>
+        <v>1.994642325253437</v>
       </c>
       <c r="P42" t="n">
         <v>21.83926865185066</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>24.83744407087687</v>
+        <v>1.994642325253419</v>
       </c>
       <c r="M45" t="n">
         <v>24.83744407087687</v>
@@ -38110,7 +38110,7 @@
         <v>24.83744407087687</v>
       </c>
       <c r="O45" t="n">
-        <v>1.994642325253423</v>
+        <v>24.83744407087687</v>
       </c>
       <c r="P45" t="n">
         <v>21.83926865185066</v>
